--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testowanie-Mises\Testy [Dołącz-Mises]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testy [Dołącz-Mises]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FDD29-9A29-4AB9-A348-6563D41345B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C070AD-0A68-404F-A386-A8865CB4E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22260" yWindow="120" windowWidth="6540" windowHeight="10455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="145">
   <si>
     <t>Nazwa</t>
   </si>
@@ -446,9 +446,6 @@
     <t>Kontrola funkcjonalności zawartych na stronie: https://dolacz.mises.pl/</t>
   </si>
   <si>
-    <t>Dostęp do interneteu, uruchomiona strona, wypełnone pola: imie, typ dokumentu, zaznaczoen 2 zgody</t>
-  </si>
-  <si>
     <t>Obsługa pola [adres email]
 TYLKO BŁĘDNE ADRESY</t>
   </si>
@@ -460,6 +457,30 @@
   </si>
   <si>
     <t>Podanie błędnego adresu email "aaaa@-www"</t>
+  </si>
+  <si>
+    <t>Dostęp do interneteu, uruchomiona strona, prawidłowe imie oraz zaznaczone zgody, wskazany typ pliku</t>
+  </si>
+  <si>
+    <t>Wpisanie adresu: "aaaa!www.xsd"</t>
+  </si>
+  <si>
+    <t>Wpisanie adresu: "aaaa@www"</t>
+  </si>
+  <si>
+    <t>Wpisanie adresu: "aaaa@-www"</t>
+  </si>
+  <si>
+    <t>Wpisanie adresu: "aaaa@12345"</t>
+  </si>
+  <si>
+    <t>Hint ostrzegawczy w polu adresu email</t>
+  </si>
+  <si>
+    <t>Nieoczekiwany błąd</t>
+  </si>
+  <si>
+    <t>Krytyczny</t>
   </si>
 </sst>
 </file>
@@ -675,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -758,6 +779,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,15 +815,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,6 +826,31 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1460,12 +1506,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Arkusz4"/>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S44" sqref="S44:S52"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,29 +1597,29 @@
       <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="35">
         <v>1</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="35">
+      <c r="H2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="38">
         <v>45158.784722222219</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="41" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="12"/>
@@ -1594,21 +1640,21 @@
       </c>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="42"/>
       <c r="L3" s="3">
         <v>2</v>
       </c>
@@ -1626,19 +1672,19 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="42"/>
+      <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="42"/>
       <c r="L4" s="3">
         <v>3</v>
       </c>
@@ -1656,19 +1702,19 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="42"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="39"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="42"/>
       <c r="L5" s="3">
         <v>4</v>
       </c>
@@ -1685,19 +1731,19 @@
         <v>49</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="S5" s="42"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="42"/>
       <c r="L6" s="3">
         <v>5</v>
       </c>
@@ -1715,19 +1761,19 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="42"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="42"/>
       <c r="L7" s="3">
         <v>6</v>
       </c>
@@ -1745,19 +1791,19 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="42"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="40"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="24"/>
       <c r="L8" s="25">
         <v>7</v>
@@ -1776,32 +1822,32 @@
       </c>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
-      <c r="S8" s="43"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="35">
         <v>1</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="H9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="38">
         <v>45159.847222222219</v>
       </c>
       <c r="J9" s="47" t="s">
@@ -1825,20 +1871,20 @@
       </c>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="41" t="s">
+      <c r="S9" s="32" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="47"/>
       <c r="L10" s="3">
         <v>2</v>
@@ -1857,18 +1903,18 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="42"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="47"/>
       <c r="L11" s="3">
         <v>3</v>
@@ -1883,22 +1929,22 @@
         <v>88</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="42"/>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="47"/>
       <c r="L12" s="3">
         <v>4</v>
@@ -1917,18 +1963,18 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="42"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="47"/>
       <c r="L13" s="3">
         <v>5</v>
@@ -1947,18 +1993,18 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="42"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="47"/>
       <c r="L14" s="3">
         <v>6</v>
@@ -1977,18 +2023,18 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="42"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="47"/>
       <c r="L15" s="3">
         <v>7</v>
@@ -2007,18 +2053,18 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="42"/>
+      <c r="S15" s="33"/>
     </row>
     <row r="16" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="47"/>
       <c r="K16" s="24"/>
       <c r="L16" s="3">
@@ -2038,35 +2084,35 @@
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
-      <c r="S16" s="43"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="17" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="44">
         <v>3</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="35">
         <v>1</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="35">
+      <c r="H17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="38">
         <v>45159.854166666664</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="41" t="s">
         <v>84</v>
       </c>
       <c r="K17" s="12"/>
@@ -2086,20 +2132,20 @@
         <v>49</v>
       </c>
       <c r="Q17" s="27"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="41"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="32"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="42"/>
       <c r="L18" s="3">
         <v>2</v>
       </c>
@@ -2116,20 +2162,20 @@
         <v>49</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="42"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="33"/>
     </row>
     <row r="19" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="42"/>
       <c r="L19" s="3">
         <v>3</v>
       </c>
@@ -2146,20 +2192,20 @@
         <v>49</v>
       </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="42"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="33"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="42"/>
       <c r="L20" s="3">
         <v>4</v>
       </c>
@@ -2176,20 +2222,20 @@
         <v>49</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="42"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="33"/>
     </row>
     <row r="21" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="42"/>
       <c r="L21" s="3">
         <v>5</v>
       </c>
@@ -2206,20 +2252,20 @@
         <v>49</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="42"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="33"/>
     </row>
     <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="39"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="42"/>
       <c r="L22" s="3">
         <v>6</v>
       </c>
@@ -2236,20 +2282,20 @@
         <v>49</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="42"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="33"/>
     </row>
     <row r="23" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="39"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="42"/>
       <c r="L23" s="3">
         <v>7</v>
       </c>
@@ -2266,20 +2312,20 @@
         <v>49</v>
       </c>
       <c r="Q23" s="4"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="42"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="33"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="42"/>
       <c r="M24" s="3" t="s">
         <v>77</v>
       </c>
@@ -2293,20 +2339,20 @@
         <v>49</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="42"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="43"/>
       <c r="K25" s="24"/>
       <c r="L25" s="3">
         <v>8</v>
@@ -2324,36 +2370,36 @@
         <v>49</v>
       </c>
       <c r="Q25" s="28"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="43"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="34"/>
     </row>
     <row r="26" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="44">
         <v>4</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="35">
         <v>1</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="38">
         <v>45160.440972222219</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="41" t="s">
         <v>84</v>
       </c>
       <c r="K26" s="12"/>
@@ -2378,19 +2424,19 @@
       <c r="R26" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="S26" s="41"/>
+      <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="39"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="42"/>
       <c r="L27" s="3">
         <v>2</v>
       </c>
@@ -2408,19 +2454,19 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="42"/>
+      <c r="S27" s="33"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="39"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="42"/>
       <c r="L28" s="3">
         <v>3</v>
       </c>
@@ -2438,19 +2484,19 @@
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="42"/>
+      <c r="S28" s="33"/>
     </row>
     <row r="29" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="42"/>
       <c r="L29" s="3">
         <v>4</v>
       </c>
@@ -2468,19 +2514,19 @@
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="42"/>
+      <c r="S29" s="33"/>
     </row>
     <row r="30" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="39"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="42"/>
       <c r="L30" s="3">
         <v>5</v>
       </c>
@@ -2498,19 +2544,19 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="42"/>
+      <c r="S30" s="33"/>
     </row>
     <row r="31" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="42"/>
       <c r="L31" s="3">
         <v>6</v>
       </c>
@@ -2528,19 +2574,19 @@
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="42"/>
+      <c r="S31" s="33"/>
     </row>
     <row r="32" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="39"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="42"/>
       <c r="L32" s="3">
         <v>7</v>
       </c>
@@ -2558,19 +2604,19 @@
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="42"/>
-    </row>
-    <row r="33" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="33"/>
+    </row>
+    <row r="33" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="39"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="42"/>
       <c r="L33" s="3">
         <v>8</v>
       </c>
@@ -2588,20 +2634,20 @@
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="42"/>
+      <c r="S33" s="33"/>
     </row>
     <row r="34" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="39"/>
-      <c r="L34" s="13">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="42"/>
+      <c r="L34" s="3">
         <v>9</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2618,35 +2664,35 @@
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="42"/>
+      <c r="S34" s="33"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="44">
         <v>5</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="35">
         <v>1</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="35">
+      <c r="H35" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="38">
         <v>45160.454861111109</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="41" t="s">
         <v>84</v>
       </c>
       <c r="K35" s="12"/>
@@ -2666,20 +2712,20 @@
         <v>49</v>
       </c>
       <c r="Q35" s="27"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="41"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="32"/>
     </row>
     <row r="36" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="39"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="42"/>
       <c r="L36" s="3">
         <v>2</v>
       </c>
@@ -2696,20 +2742,20 @@
         <v>49</v>
       </c>
       <c r="Q36" s="4"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="42"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="33"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="39"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="42"/>
       <c r="L37" s="3">
         <v>4</v>
       </c>
@@ -2726,20 +2772,20 @@
         <v>49</v>
       </c>
       <c r="Q37" s="4"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="42"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="33"/>
     </row>
     <row r="38" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="39"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="42"/>
       <c r="L38" s="3">
         <v>5</v>
       </c>
@@ -2756,20 +2802,20 @@
         <v>49</v>
       </c>
       <c r="Q38" s="4"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="42"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="33"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="39"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="42"/>
       <c r="L39" s="3">
         <v>7</v>
       </c>
@@ -2786,20 +2832,20 @@
         <v>49</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="42"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="33"/>
     </row>
     <row r="40" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="39"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="42"/>
       <c r="L40" s="3">
         <v>8</v>
       </c>
@@ -2816,36 +2862,36 @@
         <v>49</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="42"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="33"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="44">
         <v>6</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="35">
         <v>1</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="35">
+      <c r="H41" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="38">
         <v>45160.465277777781</v>
       </c>
-      <c r="J41" s="38" t="s">
+      <c r="J41" s="41" t="s">
         <v>84</v>
       </c>
       <c r="K41" s="12"/>
@@ -2865,20 +2911,20 @@
         <v>49</v>
       </c>
       <c r="Q41" s="27"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="41"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="32"/>
     </row>
     <row r="42" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="39"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="42"/>
       <c r="L42" s="3">
         <v>2</v>
       </c>
@@ -2895,20 +2941,20 @@
         <v>49</v>
       </c>
       <c r="Q42" s="4"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="42"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="33"/>
     </row>
     <row r="43" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="40"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="24"/>
       <c r="L43" s="25">
         <v>4</v>
@@ -2926,36 +2972,36 @@
         <v>49</v>
       </c>
       <c r="Q43" s="28"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="43"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="34"/>
     </row>
     <row r="44" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="32" t="s">
+      <c r="D44" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="32">
+      <c r="E44" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="35">
         <v>2</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="35">
-        <v>45158.784722222219</v>
-      </c>
-      <c r="J44" s="38" t="s">
+      <c r="H44" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="38">
+        <v>45160.802083333336</v>
+      </c>
+      <c r="J44" s="54" t="s">
         <v>84</v>
       </c>
       <c r="K44" s="12"/>
@@ -2963,211 +3009,343 @@
         <v>1</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
-      <c r="S44" s="41"/>
+      <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="39"/>
-      <c r="L45" s="3">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="51">
         <v>2</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="42"/>
+      <c r="M45" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N45" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="O45" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="P45" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="33"/>
     </row>
     <row r="46" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="39"/>
-      <c r="L46" s="3">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="51">
         <v>3</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="42"/>
+      <c r="M46" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="N46" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O46" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="33"/>
     </row>
     <row r="47" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="39"/>
-      <c r="L47" s="3">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51">
         <v>4</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q47" s="4"/>
-      <c r="S47" s="42"/>
+      <c r="M47" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="O47" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="P47" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="S47" s="33"/>
     </row>
     <row r="48" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="39"/>
-      <c r="L48" s="3">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="51">
         <v>5</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="42"/>
+      <c r="M48" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="N48" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O48" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="P48" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="33"/>
     </row>
     <row r="49" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="39"/>
-      <c r="M49" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="42"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="51">
+        <v>6</v>
+      </c>
+      <c r="M49" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N49" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="O49" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="S49" s="33"/>
     </row>
     <row r="50" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="39"/>
-      <c r="M50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="42"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="51">
+        <v>7</v>
+      </c>
+      <c r="M50" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="N50" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="O50" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="P50" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="33"/>
     </row>
     <row r="51" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="39"/>
-      <c r="L51" s="3">
-        <v>6</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="42"/>
-    </row>
-    <row r="52" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25">
-        <v>7</v>
-      </c>
-      <c r="M52" s="3" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51">
+        <v>8</v>
+      </c>
+      <c r="M51" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="43"/>
+      <c r="N51" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="O51" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="P51" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="33"/>
+    </row>
+    <row r="52" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51">
+        <v>9</v>
+      </c>
+      <c r="M52" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="N52" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="O52" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="33"/>
+    </row>
+    <row r="53" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25">
+        <v>10</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O53" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="P53" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="S53" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="S44:S52"/>
-    <mergeCell ref="F44:F52"/>
-    <mergeCell ref="G44:G52"/>
-    <mergeCell ref="H44:H52"/>
-    <mergeCell ref="I44:I52"/>
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="E44:E52"/>
-    <mergeCell ref="S2:S8"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="S26:S34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="R35:R40"/>
+    <mergeCell ref="S35:S40"/>
+    <mergeCell ref="F26:F34"/>
+    <mergeCell ref="G26:G34"/>
+    <mergeCell ref="H26:H34"/>
+    <mergeCell ref="I26:I34"/>
+    <mergeCell ref="J26:J34"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="E26:E34"/>
     <mergeCell ref="S9:S16"/>
     <mergeCell ref="A17:A25"/>
     <mergeCell ref="B17:B25"/>
@@ -3184,41 +3362,35 @@
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="G9:G16"/>
     <mergeCell ref="H9:H16"/>
-    <mergeCell ref="I26:I34"/>
-    <mergeCell ref="J26:J34"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="S26:S34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="R35:R40"/>
-    <mergeCell ref="S35:S40"/>
-    <mergeCell ref="F26:F34"/>
-    <mergeCell ref="G26:G34"/>
-    <mergeCell ref="H26:H34"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="J9:J16"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="S44:S53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="J44:J53"/>
   </mergeCells>
   <conditionalFormatting sqref="J9 H1:H1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
@@ -3237,7 +3409,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576 H1:H1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 P1:P1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3248,7 +3420,7 @@
     <hyperlink ref="J41:J43" r:id="rId4" display="Film" xr:uid="{A3F5C2E5-7DEB-4912-9B36-8E63D2C5F5FA}"/>
     <hyperlink ref="J35:J40" r:id="rId5" display="Film" xr:uid="{AC81D4FD-EE75-474D-8695-E31AF557C560}"/>
     <hyperlink ref="J26:J34" r:id="rId6" display="Film" xr:uid="{CAEE7866-E7A3-4709-9D30-644EDC9DC7B4}"/>
-    <hyperlink ref="J44:J52" r:id="rId7" display="Film" xr:uid="{AC83963B-4DA5-4557-96A5-0341DA0EBBBE}"/>
+    <hyperlink ref="J44:J53" r:id="rId7" display="Film" xr:uid="{0F0C42AF-A2A3-43D2-BD2E-734C48BE1BE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testy [Dołącz-Mises]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C070AD-0A68-404F-A386-A8865CB4E264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069D2424-31E0-4479-BC57-75A0AEA71539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -779,6 +779,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,13 +797,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,32 +824,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,7 +1173,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,6 +1337,7 @@
     <mergeCell ref="A15:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1509,15 +1494,15 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomLeft" sqref="A1:S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="29" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
@@ -1594,32 +1579,32 @@
       <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="38">
+      <c r="H2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="41">
         <v>45158.784722222219</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="12"/>
@@ -1640,21 +1625,21 @@
       </c>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="42"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="45"/>
       <c r="L3" s="3">
         <v>2</v>
       </c>
@@ -1672,19 +1657,19 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="33"/>
+      <c r="S3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="45"/>
       <c r="L4" s="3">
         <v>3</v>
       </c>
@@ -1702,19 +1687,19 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="33"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="42"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="45"/>
       <c r="L5" s="3">
         <v>4</v>
       </c>
@@ -1731,19 +1716,19 @@
         <v>49</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="S5" s="33"/>
+      <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="42"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="45"/>
       <c r="L6" s="3">
         <v>5</v>
       </c>
@@ -1761,19 +1746,19 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="33"/>
+      <c r="S6" s="36"/>
     </row>
     <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="42"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="45"/>
       <c r="L7" s="3">
         <v>6</v>
       </c>
@@ -1791,19 +1776,19 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="33"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="43"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="24"/>
       <c r="L8" s="25">
         <v>7</v>
@@ -1822,32 +1807,32 @@
       </c>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
-      <c r="S8" s="34"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="32">
         <v>1</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="41">
         <v>45159.847222222219</v>
       </c>
       <c r="J9" s="47" t="s">
@@ -1871,20 +1856,20 @@
       </c>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="39"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="47"/>
       <c r="L10" s="3">
         <v>2</v>
@@ -1903,18 +1888,18 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="33"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="39"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="47"/>
       <c r="L11" s="3">
         <v>3</v>
@@ -1933,18 +1918,18 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="33"/>
+      <c r="S11" s="36"/>
     </row>
     <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="39"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="47"/>
       <c r="L12" s="3">
         <v>4</v>
@@ -1963,18 +1948,18 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="33"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="39"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="47"/>
       <c r="L13" s="3">
         <v>5</v>
@@ -1993,18 +1978,18 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="33"/>
+      <c r="S13" s="36"/>
     </row>
     <row r="14" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="39"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="47"/>
       <c r="L14" s="3">
         <v>6</v>
@@ -2023,18 +2008,18 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="33"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="39"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="47"/>
       <c r="L15" s="3">
         <v>7</v>
@@ -2053,18 +2038,18 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="33"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="40"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="47"/>
       <c r="K16" s="24"/>
       <c r="L16" s="3">
@@ -2084,35 +2069,35 @@
       </c>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
-      <c r="S16" s="34"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="38">
         <v>3</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="32">
         <v>1</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="38">
+      <c r="H17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="41">
         <v>45159.854166666664</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="44" t="s">
         <v>84</v>
       </c>
       <c r="K17" s="12"/>
@@ -2132,20 +2117,20 @@
         <v>49</v>
       </c>
       <c r="Q17" s="27"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="42"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="45"/>
       <c r="L18" s="3">
         <v>2</v>
       </c>
@@ -2162,20 +2147,20 @@
         <v>49</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="42"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="45"/>
       <c r="L19" s="3">
         <v>3</v>
       </c>
@@ -2192,20 +2177,20 @@
         <v>49</v>
       </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="36"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="42"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="45"/>
       <c r="L20" s="3">
         <v>4</v>
       </c>
@@ -2222,20 +2207,20 @@
         <v>49</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="42"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="45"/>
       <c r="L21" s="3">
         <v>5</v>
       </c>
@@ -2252,20 +2237,20 @@
         <v>49</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="36"/>
     </row>
     <row r="22" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="42"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="45"/>
       <c r="L22" s="3">
         <v>6</v>
       </c>
@@ -2282,20 +2267,20 @@
         <v>49</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="36"/>
     </row>
     <row r="23" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="42"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="45"/>
       <c r="L23" s="3">
         <v>7</v>
       </c>
@@ -2312,20 +2297,20 @@
         <v>49</v>
       </c>
       <c r="Q23" s="4"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="36"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="42"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="45"/>
       <c r="M24" s="3" t="s">
         <v>77</v>
       </c>
@@ -2339,20 +2324,20 @@
         <v>49</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="43"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="24"/>
       <c r="L25" s="3">
         <v>8</v>
@@ -2370,36 +2355,36 @@
         <v>49</v>
       </c>
       <c r="Q25" s="28"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="37"/>
     </row>
     <row r="26" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="38">
         <v>4</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="32">
         <v>1</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="41">
         <v>45160.440972222219</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="44" t="s">
         <v>84</v>
       </c>
       <c r="K26" s="12"/>
@@ -2424,19 +2409,19 @@
       <c r="R26" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="S26" s="32"/>
+      <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="42"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="45"/>
       <c r="L27" s="3">
         <v>2</v>
       </c>
@@ -2454,19 +2439,19 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="33"/>
+      <c r="S27" s="36"/>
     </row>
     <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="42"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="45"/>
       <c r="L28" s="3">
         <v>3</v>
       </c>
@@ -2484,19 +2469,19 @@
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="33"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="42"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="45"/>
       <c r="L29" s="3">
         <v>4</v>
       </c>
@@ -2514,19 +2499,19 @@
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="33"/>
+      <c r="S29" s="36"/>
     </row>
     <row r="30" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="42"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="45"/>
       <c r="L30" s="3">
         <v>5</v>
       </c>
@@ -2544,19 +2529,19 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="33"/>
+      <c r="S30" s="36"/>
     </row>
     <row r="31" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="42"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="45"/>
       <c r="L31" s="3">
         <v>6</v>
       </c>
@@ -2574,19 +2559,19 @@
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="33"/>
+      <c r="S31" s="36"/>
     </row>
     <row r="32" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="45"/>
       <c r="L32" s="3">
         <v>7</v>
       </c>
@@ -2604,19 +2589,19 @@
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="33"/>
+      <c r="S32" s="36"/>
     </row>
     <row r="33" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="42"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="45"/>
       <c r="L33" s="3">
         <v>8</v>
       </c>
@@ -2634,19 +2619,19 @@
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="33"/>
+      <c r="S33" s="36"/>
     </row>
     <row r="34" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="42"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="45"/>
       <c r="L34" s="3">
         <v>9</v>
       </c>
@@ -2664,35 +2649,35 @@
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="33"/>
+      <c r="S34" s="36"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
+      <c r="A35" s="38">
         <v>5</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="32">
         <v>1</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="38">
+      <c r="H35" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="41">
         <v>45160.454861111109</v>
       </c>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="44" t="s">
         <v>84</v>
       </c>
       <c r="K35" s="12"/>
@@ -2712,20 +2697,20 @@
         <v>49</v>
       </c>
       <c r="Q35" s="27"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="35"/>
     </row>
     <row r="36" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="45"/>
       <c r="L36" s="3">
         <v>2</v>
       </c>
@@ -2742,20 +2727,20 @@
         <v>49</v>
       </c>
       <c r="Q36" s="4"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="42"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="45"/>
       <c r="L37" s="3">
         <v>4</v>
       </c>
@@ -2772,20 +2757,20 @@
         <v>49</v>
       </c>
       <c r="Q37" s="4"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="36"/>
     </row>
     <row r="38" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="42"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="45"/>
       <c r="L38" s="3">
         <v>5</v>
       </c>
@@ -2802,20 +2787,20 @@
         <v>49</v>
       </c>
       <c r="Q38" s="4"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="36"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="42"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="45"/>
       <c r="L39" s="3">
         <v>7</v>
       </c>
@@ -2832,20 +2817,20 @@
         <v>49</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="36"/>
     </row>
     <row r="40" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="42"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="45"/>
       <c r="L40" s="3">
         <v>8</v>
       </c>
@@ -2862,36 +2847,36 @@
         <v>49</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="36"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="44">
+      <c r="A41" s="38">
         <v>6</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="32">
         <v>1</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="38">
+      <c r="H41" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="41">
         <v>45160.465277777781</v>
       </c>
-      <c r="J41" s="41" t="s">
+      <c r="J41" s="44" t="s">
         <v>84</v>
       </c>
       <c r="K41" s="12"/>
@@ -2911,20 +2896,20 @@
         <v>49</v>
       </c>
       <c r="Q41" s="27"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="42"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="45"/>
       <c r="L42" s="3">
         <v>2</v>
       </c>
@@ -2941,20 +2926,20 @@
         <v>49</v>
       </c>
       <c r="Q42" s="4"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="36"/>
     </row>
     <row r="43" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="43"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="46"/>
       <c r="K43" s="24"/>
       <c r="L43" s="25">
         <v>4</v>
@@ -2972,36 +2957,36 @@
         <v>49</v>
       </c>
       <c r="Q43" s="28"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="37"/>
     </row>
     <row r="44" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
+      <c r="A44" s="38">
         <v>7</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="32">
         <v>2</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="41">
         <v>45160.802083333336</v>
       </c>
-      <c r="J44" s="54" t="s">
+      <c r="J44" s="48" t="s">
         <v>84</v>
       </c>
       <c r="K44" s="12"/>
@@ -3022,271 +3007,262 @@
       </c>
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
-      <c r="S44" s="32"/>
+      <c r="S44" s="35"/>
     </row>
     <row r="45" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51">
+      <c r="A45" s="39"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="49"/>
+      <c r="L45" s="3">
         <v>2</v>
       </c>
-      <c r="M45" s="51" t="s">
+      <c r="M45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N45" s="51" t="s">
+      <c r="N45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O45" s="51" t="s">
+      <c r="O45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P45" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="33"/>
+      <c r="P45" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="36"/>
     </row>
     <row r="46" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="51">
+      <c r="A46" s="39"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="49"/>
+      <c r="L46" s="3">
         <v>3</v>
       </c>
-      <c r="M46" s="51" t="s">
+      <c r="M46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N46" s="51" t="s">
+      <c r="N46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O46" s="51" t="s">
+      <c r="O46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P46" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="33"/>
+      <c r="P46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="36"/>
     </row>
     <row r="47" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51">
+      <c r="A47" s="39"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="49"/>
+      <c r="L47" s="3">
         <v>4</v>
       </c>
-      <c r="M47" s="51" t="s">
+      <c r="M47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N47" s="51" t="s">
+      <c r="N47" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O47" s="51" t="s">
+      <c r="O47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="P47" s="52" t="s">
+      <c r="P47" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53" t="s">
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="S47" s="33"/>
+      <c r="S47" s="36"/>
     </row>
     <row r="48" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51">
+      <c r="A48" s="39"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="49"/>
+      <c r="L48" s="3">
         <v>5</v>
       </c>
-      <c r="M48" s="51" t="s">
+      <c r="M48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N48" s="51" t="s">
+      <c r="N48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="O48" s="51" t="s">
+      <c r="O48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P48" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="33"/>
+      <c r="P48" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48" s="4"/>
+      <c r="S48" s="36"/>
     </row>
     <row r="49" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51">
+      <c r="A49" s="39"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="49"/>
+      <c r="L49" s="3">
         <v>6</v>
       </c>
-      <c r="M49" s="51" t="s">
+      <c r="M49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N49" s="51" t="s">
+      <c r="N49" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O49" s="51" t="s">
+      <c r="O49" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="52" t="s">
+      <c r="P49" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53" t="s">
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="S49" s="33"/>
+      <c r="S49" s="36"/>
     </row>
     <row r="50" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="51">
+      <c r="A50" s="39"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="49"/>
+      <c r="L50" s="3">
         <v>7</v>
       </c>
-      <c r="M50" s="51" t="s">
+      <c r="M50" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N50" s="51" t="s">
+      <c r="N50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O50" s="51" t="s">
+      <c r="O50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P50" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="33"/>
+      <c r="P50" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="36"/>
     </row>
     <row r="51" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51">
+      <c r="A51" s="39"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="49"/>
+      <c r="L51" s="3">
         <v>8</v>
       </c>
-      <c r="M51" s="51" t="s">
+      <c r="M51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N51" s="51" t="s">
+      <c r="N51" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="O51" s="51" t="s">
+      <c r="O51" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P51" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="33"/>
+      <c r="P51" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="36"/>
     </row>
     <row r="52" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51">
+      <c r="A52" s="39"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="49"/>
+      <c r="L52" s="3">
         <v>9</v>
       </c>
-      <c r="M52" s="51" t="s">
+      <c r="M52" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N52" s="51" t="s">
+      <c r="N52" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O52" s="51" t="s">
+      <c r="O52" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P52" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="33"/>
+      <c r="P52" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="36"/>
     </row>
     <row r="53" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="56"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="50"/>
       <c r="K53" s="24"/>
       <c r="L53" s="25">
         <v>10</v>
@@ -3307,22 +3283,62 @@
       <c r="R53" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="S53" s="34"/>
+      <c r="S53" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="S44:S53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="J44:J53"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="J9:J16"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="S9:S16"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="H17:H25"/>
+    <mergeCell ref="I17:I25"/>
+    <mergeCell ref="J17:J25"/>
+    <mergeCell ref="R17:R25"/>
+    <mergeCell ref="S17:S25"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="I26:I34"/>
+    <mergeCell ref="J26:J34"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="E26:E34"/>
     <mergeCell ref="S26:S34"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="B35:B40"/>
@@ -3339,60 +3355,20 @@
     <mergeCell ref="F26:F34"/>
     <mergeCell ref="G26:G34"/>
     <mergeCell ref="H26:H34"/>
-    <mergeCell ref="I26:I34"/>
-    <mergeCell ref="J26:J34"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="S9:S16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="G17:G25"/>
-    <mergeCell ref="H17:H25"/>
-    <mergeCell ref="I17:I25"/>
-    <mergeCell ref="J17:J25"/>
-    <mergeCell ref="R17:R25"/>
-    <mergeCell ref="S17:S25"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="S2:S8"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="S44:S53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="G44:G53"/>
-    <mergeCell ref="H44:H53"/>
-    <mergeCell ref="I44:I53"/>
-    <mergeCell ref="J44:J53"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
   </mergeCells>
-  <conditionalFormatting sqref="J9 H1:H1048576">
+  <conditionalFormatting sqref="H1:H1048576 J9">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testy [Dołącz-Mises]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA75C82-7746-4E6F-BF19-98953C2F7880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4786CB-8F10-4F6F-AA1F-233F0C1CCFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
     <sheet name="Kompilacja" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Wymagania" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Dołącz - rejestracja" sheetId="6" r:id="rId4"/>
+    <sheet name="Menu główne" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="209">
   <si>
     <t>Nazwa</t>
   </si>
@@ -521,6 +522,166 @@
     <t>Uwaga dotyczy tylko 1 błędu:
 Niestety nie umiem wskazać jednoznacznejścieżki do błędu.
 Wydaje się, że jest związany z niepoprawnym adresem email, ale nie jest to regułą.</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>Dostęp do interneteu, uruchomiona strona główna</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://mises.pl/artykuly</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://mises.pl/ebooki</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://mises.pl/#projects</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://www.mises.sklep.pl/</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://mises.pl/o-nas</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "o nas"</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://mises.pl/kontakt</t>
+  </si>
+  <si>
+    <t>Powrót do strony głównej</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://mises.pl/wsparcie</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://dolacz.mises.pl/</t>
+  </si>
+  <si>
+    <t>Pasek nawigacyjny</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://raporty.mises.pl/</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "sklep"</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Kontakt"</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Wesprzyj nas"</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Dołącz"</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://mises.pl</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Raporty"</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Projekty"</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Eboki"</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Artykuły"</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta pod strona https://mises.pl/#projects</t>
+  </si>
+  <si>
+    <t>Niespójny z wcześniejszymi podstronami link</t>
+  </si>
+  <si>
+    <t>USTERKA PODRZĘDNA</t>
+  </si>
+  <si>
+    <t>Brak menu głównego</t>
+  </si>
+  <si>
+    <t>Brak możliwości powrotu do strony głównej z poziomu menu strony, powrót do strony głównej tylko przez menu przeglądarki</t>
+  </si>
+  <si>
+    <t>USTERKA</t>
+  </si>
+  <si>
+    <t>Brak możliwości powrotu do strony głównej z poziomu menu strony, powrót do strony głównej tylko przez zamknięcie podstrony</t>
+  </si>
+  <si>
+    <t>Niespójny layout strony</t>
+  </si>
+  <si>
+    <t>Niespójna logika strony. Zostaje otwarta nowa karta, inny layout menu w karcie, niedziałający link logo. Niespójne logo.</t>
+  </si>
+  <si>
+    <t>Niespójna logika strony. Link do strony głównej otwiera nową kartę zamiast powrócić do już otwartej.</t>
+  </si>
+  <si>
+    <t>Kontrola działania nawigacji ze strony paska nawigacyjnego strony głównej</t>
+  </si>
+  <si>
+    <t>2023-08-24 
+11:50:00</t>
+  </si>
+  <si>
+    <t>Menu spójne ze stroną główną</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powrót do strony głównej przez kliknięcie w logo firmy </t>
+  </si>
+  <si>
+    <t>Weryfikacja layoutu</t>
+  </si>
+  <si>
+    <t>Powrót do strony głównej przez funkcję powrotu przeglądarki</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://www.mises.sklep.pl/ w aktualnej karcie</t>
+  </si>
+  <si>
+    <t>Zmknięcie karty "Sklep"</t>
+  </si>
+  <si>
+    <t>Pozostaje otwarta karta ze stroną główną</t>
+  </si>
+  <si>
+    <t>Otwarcie strony "Sklep"</t>
+  </si>
+  <si>
+    <t>Menu niespójne ze stroną główną</t>
+  </si>
+  <si>
+    <t>Odświerzenie strony https://raporty.mises.pl/</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://www.mises.sklep.pl/ w nowej karcie</t>
+  </si>
+  <si>
+    <t>Odświerzenie strony https://www.mises.sklep.p</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://dolacz.mises.pl/ na karcie głównej</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://dolacz.mises.pl/ w nowej karcie</t>
+  </si>
+  <si>
+    <t>Niedostępna funkcja przeglądarki</t>
+  </si>
+  <si>
+    <t>Niespójne layout menu. Niespójne logo firmy</t>
+  </si>
+  <si>
+    <t>Niespójna logika strony.</t>
+  </si>
+  <si>
+    <t>Niewłaściwa logika strony</t>
   </si>
 </sst>
 </file>
@@ -752,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -795,51 +956,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -851,18 +967,87 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,26 +1060,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -903,13 +1070,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,18 +1081,7 @@
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b/>
@@ -1042,17 +1195,6 @@
       <font>
         <b/>
         <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1133,214 +1275,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1661,10 +1595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1719,10 +1653,10 @@
       <c r="B8" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1757,7 +1691,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1765,47 +1699,47 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="34"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="34"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="34"/>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="34"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="34"/>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="34"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="34"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="34"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="34"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="34"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="34"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="34"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1949,10 +1883,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1 I1:I1048576">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1970,11 +1904,11 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26:D34"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1988,20 +1922,20 @@
     <col min="7" max="7" width="10.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="39" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="22" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" style="4" customWidth="1"/>
     <col min="13" max="13" width="26.85546875" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="5.85546875" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="48" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="26" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="4" customWidth="1"/>
     <col min="19" max="19" width="22.85546875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="35"/>
+    <col min="20" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="31" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="16" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -2029,7 +1963,7 @@
       <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="32"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="6" t="s">
         <v>29</v>
       </c>
@@ -2048,43 +1982,43 @@
       <c r="P1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="34"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="41">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="37"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="13">
         <v>1</v>
       </c>
@@ -2101,21 +2035,21 @@
         <v>46</v>
       </c>
       <c r="P2" s="13"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="18" t="s">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="48"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
@@ -2131,18 +2065,18 @@
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="19"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="48"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -2158,18 +2092,18 @@
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="19"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
@@ -2185,18 +2119,18 @@
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="19"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -2212,18 +2146,18 @@
       <c r="O6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="19"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
@@ -2239,19 +2173,19 @@
       <c r="O7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="19"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="14">
         <v>7</v>
       </c>
@@ -2268,38 +2202,38 @@
         <v>46</v>
       </c>
       <c r="P8" s="14"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="20"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="41">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="37"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="13">
         <v>1</v>
       </c>
@@ -2316,21 +2250,21 @@
         <v>46</v>
       </c>
       <c r="P9" s="13"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="18" t="s">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="50"/>
       <c r="K10" s="4">
         <v>2</v>
       </c>
@@ -2346,18 +2280,18 @@
       <c r="O10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="19"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="50"/>
       <c r="K11" s="4">
         <v>3</v>
       </c>
@@ -2373,18 +2307,18 @@
       <c r="O11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="50"/>
       <c r="K12" s="4">
         <v>4</v>
       </c>
@@ -2403,21 +2337,21 @@
       <c r="P12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q12" s="48" t="s">
+      <c r="Q12" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="R12" s="19"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="42"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="50"/>
       <c r="K13" s="4">
         <v>5</v>
       </c>
@@ -2433,18 +2367,18 @@
       <c r="O13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="19"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="42"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="50"/>
       <c r="K14" s="4">
         <v>6</v>
       </c>
@@ -2460,18 +2394,18 @@
       <c r="O14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="19"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="42"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="50"/>
       <c r="K15" s="4">
         <v>7</v>
       </c>
@@ -2487,19 +2421,19 @@
       <c r="O15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="19"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="41"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="4">
         <v>8</v>
       </c>
@@ -2516,38 +2450,38 @@
         <v>46</v>
       </c>
       <c r="P16" s="14"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="20"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+      <c r="A17" s="38">
         <v>3</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="41">
         <v>1</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="13">
         <v>1</v>
       </c>
@@ -2564,19 +2498,19 @@
         <v>46</v>
       </c>
       <c r="P17" s="13"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="18"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="35"/>
     </row>
     <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="48"/>
       <c r="K18" s="4">
         <v>2</v>
       </c>
@@ -2592,19 +2526,19 @@
       <c r="O18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="19"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="38"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="48"/>
       <c r="K19" s="4">
         <v>3</v>
       </c>
@@ -2620,19 +2554,19 @@
       <c r="O19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="19"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="38"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="48"/>
       <c r="K20" s="4">
         <v>4</v>
       </c>
@@ -2648,19 +2582,19 @@
       <c r="O20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="19"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="48"/>
       <c r="K21" s="4">
         <v>5</v>
       </c>
@@ -2676,19 +2610,19 @@
       <c r="O21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="19"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="38"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="48"/>
       <c r="K22" s="4">
         <v>6</v>
       </c>
@@ -2704,19 +2638,19 @@
       <c r="O22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="19"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="38"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="48"/>
       <c r="K23" s="4">
         <v>7</v>
       </c>
@@ -2732,19 +2666,19 @@
       <c r="O23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="19"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="38"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="48"/>
       <c r="L24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2757,20 +2691,20 @@
       <c r="O24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="19"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="36"/>
     </row>
     <row r="25" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="4">
         <v>8</v>
       </c>
@@ -2787,38 +2721,38 @@
         <v>46</v>
       </c>
       <c r="P25" s="14"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="20"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+      <c r="A26" s="38">
         <v>4</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="41">
         <v>1</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="37"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="13">
         <v>1</v>
       </c>
@@ -2837,21 +2771,21 @@
       <c r="P26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="Q26" s="47" t="s">
+      <c r="Q26" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R26" s="18"/>
+      <c r="R26" s="35"/>
     </row>
     <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="38"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="48"/>
       <c r="K27" s="4">
         <v>2</v>
       </c>
@@ -2867,18 +2801,18 @@
       <c r="O27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="19"/>
+      <c r="R27" s="36"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="38"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="48"/>
       <c r="K28" s="4">
         <v>3</v>
       </c>
@@ -2894,18 +2828,18 @@
       <c r="O28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="19"/>
+      <c r="R28" s="36"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="38"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="48"/>
       <c r="K29" s="4">
         <v>4</v>
       </c>
@@ -2921,18 +2855,18 @@
       <c r="O29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="19"/>
+      <c r="R29" s="36"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="38"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="48"/>
       <c r="K30" s="4">
         <v>5</v>
       </c>
@@ -2948,18 +2882,18 @@
       <c r="O30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R30" s="19"/>
+      <c r="R30" s="36"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="38"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="48"/>
       <c r="K31" s="4">
         <v>6</v>
       </c>
@@ -2975,18 +2909,18 @@
       <c r="O31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="19"/>
+      <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="38"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="48"/>
       <c r="K32" s="4">
         <v>7</v>
       </c>
@@ -3002,18 +2936,18 @@
       <c r="O32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R32" s="19"/>
+      <c r="R32" s="36"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="38"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="48"/>
       <c r="K33" s="4">
         <v>8</v>
       </c>
@@ -3029,18 +2963,18 @@
       <c r="O33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="19"/>
+      <c r="R33" s="36"/>
     </row>
     <row r="34" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="38"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="48"/>
       <c r="K34" s="4">
         <v>9</v>
       </c>
@@ -3056,37 +2990,37 @@
       <c r="O34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R34" s="19"/>
+      <c r="R34" s="36"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+      <c r="A35" s="38">
         <v>5</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="41">
         <v>1</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="37"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="13">
         <v>1</v>
       </c>
@@ -3103,19 +3037,19 @@
         <v>46</v>
       </c>
       <c r="P35" s="13"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="18"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="35"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="38"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="48"/>
       <c r="K36" s="4">
         <v>2</v>
       </c>
@@ -3131,19 +3065,19 @@
       <c r="O36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="19"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="38"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="48"/>
       <c r="K37" s="4">
         <v>4</v>
       </c>
@@ -3159,19 +3093,19 @@
       <c r="O37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="19"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="38"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="48"/>
       <c r="K38" s="4">
         <v>5</v>
       </c>
@@ -3187,19 +3121,19 @@
       <c r="O38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="19"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="48"/>
       <c r="K39" s="4">
         <v>7</v>
       </c>
@@ -3215,19 +3149,19 @@
       <c r="O39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="19"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="38"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="48"/>
       <c r="K40" s="4">
         <v>8</v>
       </c>
@@ -3243,38 +3177,38 @@
       <c r="O40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="19"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
+      <c r="A41" s="38">
         <v>6</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="41">
         <v>1</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J41" s="37"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="13">
         <v>1</v>
       </c>
@@ -3291,19 +3225,19 @@
         <v>46</v>
       </c>
       <c r="P41" s="13"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="18"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="35"/>
     </row>
     <row r="42" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="38"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="48"/>
       <c r="K42" s="4">
         <v>2</v>
       </c>
@@ -3319,20 +3253,20 @@
       <c r="O42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="19"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="14">
         <v>4</v>
       </c>
@@ -3349,38 +3283,38 @@
         <v>46</v>
       </c>
       <c r="P43" s="14"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="20"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="37"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="27">
+      <c r="A44" s="38">
         <v>7</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="41">
         <v>2</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="J44" s="37"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="13">
         <v>1</v>
       </c>
@@ -3397,270 +3331,250 @@
         <v>46</v>
       </c>
       <c r="P44" s="13"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="18" t="s">
+      <c r="Q44" s="25"/>
+      <c r="R44" s="35" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="30">
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="52"/>
+      <c r="K45" s="4">
         <v>2</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="L45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M45" s="30" t="s">
+      <c r="M45" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N45" s="30" t="s">
+      <c r="N45" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O45" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="19"/>
+      <c r="O45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="30">
+      <c r="A46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="52"/>
+      <c r="K46" s="4">
         <v>3</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M46" s="30" t="s">
+      <c r="M46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N46" s="30" t="s">
+      <c r="N46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="O46" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="19"/>
+      <c r="O46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" s="36"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="30">
+      <c r="A47" s="39"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="52"/>
+      <c r="K47" s="4">
         <v>4</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="M47" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N47" s="30" t="s">
+      <c r="N47" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="O47" s="30" t="s">
+      <c r="O47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P47" s="57" t="s">
+      <c r="P47" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="Q47" s="56" t="s">
+      <c r="Q47" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R47" s="19"/>
+      <c r="R47" s="36"/>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="30">
+      <c r="A48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="52"/>
+      <c r="K48" s="4">
         <v>5</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M48" s="30" t="s">
+      <c r="M48" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N48" s="30" t="s">
+      <c r="N48" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="O48" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="19"/>
+      <c r="O48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R48" s="36"/>
     </row>
     <row r="49" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="30">
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="52"/>
+      <c r="K49" s="4">
         <v>6</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="L49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="30" t="s">
+      <c r="M49" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N49" s="30" t="s">
+      <c r="N49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O49" s="30" t="s">
+      <c r="O49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P49" s="57" t="s">
+      <c r="P49" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="Q49" s="56" t="s">
+      <c r="Q49" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="19"/>
+      <c r="R49" s="36"/>
     </row>
     <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="30">
+      <c r="A50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="52"/>
+      <c r="K50" s="4">
         <v>7</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="L50" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M50" s="30" t="s">
+      <c r="M50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N50" s="30" t="s">
+      <c r="N50" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O50" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="19"/>
+      <c r="O50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="30">
+      <c r="A51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="52"/>
+      <c r="K51" s="4">
         <v>8</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="30" t="s">
+      <c r="M51" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N51" s="30" t="s">
+      <c r="N51" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O51" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="19"/>
+      <c r="O51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R51" s="36"/>
     </row>
     <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="30">
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="52"/>
+      <c r="K52" s="4">
         <v>9</v>
       </c>
-      <c r="L52" s="30" t="s">
+      <c r="L52" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M52" s="30" t="s">
+      <c r="M52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N52" s="30" t="s">
+      <c r="N52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O52" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="19"/>
+      <c r="O52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R52" s="36"/>
     </row>
     <row r="53" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="41"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="14">
         <v>10</v>
       </c>
@@ -3676,26 +3590,60 @@
       <c r="O53" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P53" s="58" t="s">
+      <c r="P53" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="Q53" s="49" t="s">
+      <c r="Q53" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="R53" s="20"/>
+      <c r="R53" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="R44:R53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="R2:R8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="R9:R16"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="H17:H25"/>
+    <mergeCell ref="I17:I25"/>
+    <mergeCell ref="R17:R25"/>
+    <mergeCell ref="F9:F16"/>
     <mergeCell ref="R26:R34"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="C35:C40"/>
@@ -3712,89 +3660,50 @@
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="H26:H34"/>
     <mergeCell ref="I26:I34"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="R9:R16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="G17:G25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="H17:H25"/>
-    <mergeCell ref="I17:I25"/>
-    <mergeCell ref="R17:R25"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="R2:R8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="R44:R53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="G44:G53"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="H44:H53"/>
-    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576 I9">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"tak"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD KRYTYCZNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD ISTOTNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ISTOTNA USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>"USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"USTERKA PODRZĘDNA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"USTERKA PODRZĘDNA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3818,4 +3727,1182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FAEA6D-28C9-4A30-A6D3-1472532CD6D8}">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20:R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="16" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="41">
+        <v>1</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="35"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="48"/>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="48"/>
+      <c r="K4" s="4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48"/>
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48"/>
+      <c r="K7" s="4">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="48"/>
+      <c r="K8" s="4">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="1:19" ht="108" x14ac:dyDescent="0.2">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="48"/>
+      <c r="K9" s="4">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="108" x14ac:dyDescent="0.2">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="48"/>
+      <c r="K10" s="4">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="1:19" ht="108" x14ac:dyDescent="0.2">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="48"/>
+      <c r="K11" s="4">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="48"/>
+      <c r="K12" s="4">
+        <v>11</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="48"/>
+      <c r="K13" s="4">
+        <v>12</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="48"/>
+      <c r="K14" s="4">
+        <v>13</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="48"/>
+      <c r="K15" s="4">
+        <v>14</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="48"/>
+      <c r="K16" s="4">
+        <v>15</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="36"/>
+    </row>
+    <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="K17" s="4">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="48"/>
+      <c r="K18" s="4">
+        <v>17</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="1:18" ht="84.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="14">
+        <v>18</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="R19" s="37"/>
+    </row>
+    <row r="20" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="41">
+        <v>2</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58">
+        <v>2</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="N21" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="R21" s="36"/>
+    </row>
+    <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58">
+        <v>3</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="R22" s="36"/>
+    </row>
+    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58">
+        <v>4</v>
+      </c>
+      <c r="L23" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58">
+        <v>5</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="R24" s="36"/>
+    </row>
+    <row r="25" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58">
+        <v>6</v>
+      </c>
+      <c r="L25" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="N25" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="R25" s="36"/>
+    </row>
+    <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58">
+        <v>7</v>
+      </c>
+      <c r="L26" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="R26" s="36"/>
+    </row>
+    <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58">
+        <v>8</v>
+      </c>
+      <c r="L27" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="N27" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q27" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="R27" s="36"/>
+    </row>
+    <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58">
+        <v>9</v>
+      </c>
+      <c r="L28" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="36"/>
+    </row>
+    <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58">
+        <v>10</v>
+      </c>
+      <c r="L29" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="N29" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="R29" s="36"/>
+    </row>
+    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58">
+        <v>11</v>
+      </c>
+      <c r="L30" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="N30" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q30" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="R30" s="36"/>
+    </row>
+    <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58">
+        <v>12</v>
+      </c>
+      <c r="L31" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="O31" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q31" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="R31" s="36"/>
+    </row>
+    <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="N32" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="R32" s="36"/>
+    </row>
+    <row r="33" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="14">
+        <v>13</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="G20:G33"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="I20:I33"/>
+    <mergeCell ref="R20:R33"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="C20:C33"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="E20:E33"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="H2:H19"/>
+    <mergeCell ref="I2:I19"/>
+    <mergeCell ref="R2:R19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="F2:F19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"NIE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"tak"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"TAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"NIE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"BŁĄD KRYTYCZNY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"BŁĄD ISTOTNY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"BŁĄD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"ISTOTNA USTERKA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"USTERKA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"USTERKA PODRZĘDNA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{EC584E36-1352-4872-B630-26EF7FB99641}">
+      <formula1>"BŁĄD KRYTYCZNY,BŁĄD ISTOTNY,BŁĄD,ISTOTNA USTERKA,USTERKA,USTERKA PODRZĘDNA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 O1:O1048576" xr:uid="{7ACD998E-99F8-4296-8618-35FF2D5CA65D}">
+      <formula1>"TAK,NIE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testy [Dołącz-Mises]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4786CB-8F10-4F6F-AA1F-233F0C1CCFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC5D48D-7C79-4948-B4C3-D1BADC097FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="218">
   <si>
     <t>Nazwa</t>
   </si>
@@ -593,34 +593,13 @@
     <t>Otwarcie strony "Artykuły"</t>
   </si>
   <si>
-    <t>Zostaje otwarta pod strona https://mises.pl/#projects</t>
-  </si>
-  <si>
     <t>Niespójny z wcześniejszymi podstronami link</t>
   </si>
   <si>
     <t>USTERKA PODRZĘDNA</t>
   </si>
   <si>
-    <t>Brak menu głównego</t>
-  </si>
-  <si>
-    <t>Brak możliwości powrotu do strony głównej z poziomu menu strony, powrót do strony głównej tylko przez menu przeglądarki</t>
-  </si>
-  <si>
     <t>USTERKA</t>
-  </si>
-  <si>
-    <t>Brak możliwości powrotu do strony głównej z poziomu menu strony, powrót do strony głównej tylko przez zamknięcie podstrony</t>
-  </si>
-  <si>
-    <t>Niespójny layout strony</t>
-  </si>
-  <si>
-    <t>Niespójna logika strony. Zostaje otwarta nowa karta, inny layout menu w karcie, niedziałający link logo. Niespójne logo.</t>
-  </si>
-  <si>
-    <t>Niespójna logika strony. Link do strony głównej otwiera nową kartę zamiast powrócić do już otwartej.</t>
   </si>
   <si>
     <t>Kontrola działania nawigacji ze strony paska nawigacyjnego strony głównej</t>
@@ -682,6 +661,56 @@
   </si>
   <si>
     <t>Niewłaściwa logika strony</t>
+  </si>
+  <si>
+    <t>2023-08-24 
+11:50</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>Kontrola działania nawigacji ze strony paska nawigacyjnego strony"Artykuły"</t>
+  </si>
+  <si>
+    <t>Dostęp do interneteu, uruchomiona strona "Artykuły"</t>
+  </si>
+  <si>
+    <t>Powrót do strony "Artykuły"</t>
+  </si>
+  <si>
+    <t>Otwarcie strony Głównej</t>
+  </si>
+  <si>
+    <t>Skrolowanie do pod strony https://mises.pl/#projects</t>
+  </si>
+  <si>
+    <t>Brak linka powrotnego do strony "Artykuły"</t>
+  </si>
+  <si>
+    <t>Brak menu głównego. Brak możliwości powrotu do strony "Artykuły" z poziomu menu strony, powrót do strony głównej tylko przez menu przeglądarki</t>
+  </si>
+  <si>
+    <t>Niespójna logika strony. Zostaje otwarta nowa karta, inny layout menu w karcie, niedziałający link logo. Niespójne logo. Brak możliwości powrotu do strony "Artykuły" z poziomu menu strony, powrót do strony głównej tylko przez menu przeglądarki</t>
+  </si>
+  <si>
+    <t>W nowej karcie zostaje otwarta strona https://dolacz.mises.pl/</t>
+  </si>
+  <si>
+    <t>Brak menu głównego. Brak możliwości powrotu do strony głównej z poziomu menu strony, powrót do strony głównej tylko przez menu przeglądarki</t>
+  </si>
+  <si>
+    <t>Niespójna logika strony. Zostaje otwarta nowa karta, inny layout menu w karcie, niedziałający link logo. Niespójne logo. Brak możliwości powrotu do strony głównej z poziomu menu strony, powrót do strony głównej tylko przez zamknięcie podstrony</t>
+  </si>
+  <si>
+    <t>Niespójny layout strony. Niespójna logika strony. Link do strony głównej otwiera nową kartę zamiast powrócić do już otwartej.</t>
+  </si>
+  <si>
+    <t>Niespójny layout strony. Niespójna logika strony. Brak linku powrotnego. Powrót do strony "Artykuły" tylko po zamknięciu strony "Dołącz"</t>
+  </si>
+  <si>
+    <t>2023-08-25
+10:30</t>
   </si>
 </sst>
 </file>
@@ -913,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1003,15 +1032,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,6 +1050,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1038,6 +1067,15 @@
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,16 +1089,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,31 +2029,31 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="38">
         <v>1</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="21"/>
@@ -2036,20 +2074,20 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="45"/>
-      <c r="I3" s="48"/>
+      <c r="I3" s="51"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
@@ -2065,18 +2103,18 @@
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="36"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="45"/>
-      <c r="I4" s="48"/>
+      <c r="I4" s="51"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -2092,18 +2130,18 @@
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="36"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="45"/>
-      <c r="I5" s="48"/>
+      <c r="I5" s="51"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
@@ -2119,18 +2157,18 @@
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="36"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="48"/>
+      <c r="I6" s="51"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -2146,18 +2184,18 @@
       <c r="O6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="36"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="48"/>
+      <c r="I7" s="51"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
@@ -2173,18 +2211,18 @@
       <c r="O7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="36"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="49"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="23"/>
       <c r="K8" s="14">
         <v>7</v>
@@ -2203,34 +2241,34 @@
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="27"/>
-      <c r="R8" s="37"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="35">
         <v>2</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="38">
         <v>1</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="53" t="s">
         <v>81</v>
       </c>
       <c r="J9" s="21"/>
@@ -2251,20 +2289,20 @@
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="53"/>
       <c r="K10" s="4">
         <v>2</v>
       </c>
@@ -2280,18 +2318,18 @@
       <c r="O10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="36"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="53"/>
       <c r="K11" s="4">
         <v>3</v>
       </c>
@@ -2307,18 +2345,18 @@
       <c r="O11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="36"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="53"/>
       <c r="K12" s="4">
         <v>4</v>
       </c>
@@ -2340,18 +2378,18 @@
       <c r="Q12" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="R12" s="36"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="53"/>
       <c r="K13" s="4">
         <v>5</v>
       </c>
@@ -2367,18 +2405,18 @@
       <c r="O13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="36"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="53"/>
       <c r="K14" s="4">
         <v>6</v>
       </c>
@@ -2394,18 +2432,18 @@
       <c r="O14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="53"/>
       <c r="K15" s="4">
         <v>7</v>
       </c>
@@ -2421,18 +2459,18 @@
       <c r="O15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="46"/>
-      <c r="I16" s="50"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="23"/>
       <c r="K16" s="4">
         <v>8</v>
@@ -2451,34 +2489,34 @@
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="37"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="35">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="38">
         <v>1</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J17" s="21"/>
@@ -2499,18 +2537,18 @@
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="28"/>
-      <c r="R17" s="35"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="51"/>
       <c r="K18" s="4">
         <v>2</v>
       </c>
@@ -2527,18 +2565,18 @@
         <v>46</v>
       </c>
       <c r="Q18" s="29"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="51"/>
       <c r="K19" s="4">
         <v>3</v>
       </c>
@@ -2555,18 +2593,18 @@
         <v>46</v>
       </c>
       <c r="Q19" s="29"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="51"/>
       <c r="K20" s="4">
         <v>4</v>
       </c>
@@ -2583,18 +2621,18 @@
         <v>46</v>
       </c>
       <c r="Q20" s="29"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="51"/>
       <c r="K21" s="4">
         <v>5</v>
       </c>
@@ -2611,18 +2649,18 @@
         <v>46</v>
       </c>
       <c r="Q21" s="29"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="51"/>
       <c r="K22" s="4">
         <v>6</v>
       </c>
@@ -2639,18 +2677,18 @@
         <v>46</v>
       </c>
       <c r="Q22" s="29"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="51"/>
       <c r="K23" s="4">
         <v>7</v>
       </c>
@@ -2667,18 +2705,18 @@
         <v>46</v>
       </c>
       <c r="Q23" s="29"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="51"/>
       <c r="L24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2692,18 +2730,18 @@
         <v>46</v>
       </c>
       <c r="Q24" s="29"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="46"/>
-      <c r="I25" s="49"/>
+      <c r="I25" s="52"/>
       <c r="J25" s="23"/>
       <c r="K25" s="4">
         <v>8</v>
@@ -2722,34 +2760,34 @@
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="37"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="35">
         <v>4</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="38">
         <v>1</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="21"/>
@@ -2774,18 +2812,18 @@
       <c r="Q26" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R26" s="35"/>
+      <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="48"/>
+      <c r="I27" s="51"/>
       <c r="K27" s="4">
         <v>2</v>
       </c>
@@ -2801,18 +2839,18 @@
       <c r="O27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="36"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="48"/>
+      <c r="I28" s="51"/>
       <c r="K28" s="4">
         <v>3</v>
       </c>
@@ -2828,18 +2866,18 @@
       <c r="O28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="36"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="48"/>
+      <c r="I29" s="51"/>
       <c r="K29" s="4">
         <v>4</v>
       </c>
@@ -2855,18 +2893,18 @@
       <c r="O29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="36"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="48"/>
+      <c r="I30" s="51"/>
       <c r="K30" s="4">
         <v>5</v>
       </c>
@@ -2882,18 +2920,18 @@
       <c r="O30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R30" s="36"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="48"/>
+      <c r="I31" s="51"/>
       <c r="K31" s="4">
         <v>6</v>
       </c>
@@ -2909,18 +2947,18 @@
       <c r="O31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="36"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="48"/>
+      <c r="I32" s="51"/>
       <c r="K32" s="4">
         <v>7</v>
       </c>
@@ -2936,18 +2974,18 @@
       <c r="O32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R32" s="36"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="48"/>
+      <c r="I33" s="51"/>
       <c r="K33" s="4">
         <v>8</v>
       </c>
@@ -2963,18 +3001,18 @@
       <c r="O33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="36"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="48"/>
+      <c r="I34" s="51"/>
       <c r="K34" s="4">
         <v>9</v>
       </c>
@@ -2990,34 +3028,34 @@
       <c r="O34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R34" s="36"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="35">
         <v>5</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="41" t="s">
+      <c r="B35" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="38">
         <v>1</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J35" s="21"/>
@@ -3038,18 +3076,18 @@
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="28"/>
-      <c r="R35" s="35"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="48"/>
+      <c r="I36" s="51"/>
       <c r="K36" s="4">
         <v>2</v>
       </c>
@@ -3066,18 +3104,18 @@
         <v>46</v>
       </c>
       <c r="Q36" s="29"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="48"/>
+      <c r="I37" s="51"/>
       <c r="K37" s="4">
         <v>4</v>
       </c>
@@ -3094,18 +3132,18 @@
         <v>46</v>
       </c>
       <c r="Q37" s="29"/>
-      <c r="R37" s="36"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="48"/>
+      <c r="I38" s="51"/>
       <c r="K38" s="4">
         <v>5</v>
       </c>
@@ -3122,18 +3160,18 @@
         <v>46</v>
       </c>
       <c r="Q38" s="29"/>
-      <c r="R38" s="36"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="48"/>
+      <c r="I39" s="51"/>
       <c r="K39" s="4">
         <v>7</v>
       </c>
@@ -3150,18 +3188,18 @@
         <v>46</v>
       </c>
       <c r="Q39" s="29"/>
-      <c r="R39" s="36"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="48"/>
+      <c r="I40" s="51"/>
       <c r="K40" s="4">
         <v>8</v>
       </c>
@@ -3178,34 +3216,34 @@
         <v>46</v>
       </c>
       <c r="Q40" s="29"/>
-      <c r="R40" s="36"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
+      <c r="A41" s="35">
         <v>6</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="41" t="s">
+      <c r="B41" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="38">
         <v>1</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J41" s="21"/>
@@ -3226,18 +3264,18 @@
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="28"/>
-      <c r="R41" s="35"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="48"/>
+      <c r="I42" s="51"/>
       <c r="K42" s="4">
         <v>2</v>
       </c>
@@ -3254,18 +3292,18 @@
         <v>46</v>
       </c>
       <c r="Q42" s="29"/>
-      <c r="R42" s="36"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="46"/>
-      <c r="I43" s="49"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="23"/>
       <c r="K43" s="14">
         <v>4</v>
@@ -3284,34 +3322,34 @@
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="30"/>
-      <c r="R43" s="37"/>
+      <c r="R43" s="43"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
+      <c r="A44" s="35">
         <v>7</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="38">
         <v>2</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="I44" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J44" s="21"/>
@@ -3332,20 +3370,20 @@
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="25"/>
-      <c r="R44" s="35" t="s">
+      <c r="R44" s="41" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="45"/>
-      <c r="I45" s="52"/>
+      <c r="I45" s="48"/>
       <c r="K45" s="4">
         <v>2</v>
       </c>
@@ -3361,18 +3399,18 @@
       <c r="O45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R45" s="36"/>
+      <c r="R45" s="42"/>
     </row>
     <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="45"/>
-      <c r="I46" s="52"/>
+      <c r="I46" s="48"/>
       <c r="K46" s="4">
         <v>3</v>
       </c>
@@ -3388,18 +3426,18 @@
       <c r="O46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="36"/>
+      <c r="R46" s="42"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="45"/>
-      <c r="I47" s="52"/>
+      <c r="I47" s="48"/>
       <c r="K47" s="4">
         <v>4</v>
       </c>
@@ -3421,18 +3459,18 @@
       <c r="Q47" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R47" s="36"/>
+      <c r="R47" s="42"/>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="45"/>
-      <c r="I48" s="52"/>
+      <c r="I48" s="48"/>
       <c r="K48" s="4">
         <v>5</v>
       </c>
@@ -3448,18 +3486,18 @@
       <c r="O48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R48" s="36"/>
+      <c r="R48" s="42"/>
     </row>
     <row r="49" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="45"/>
-      <c r="I49" s="52"/>
+      <c r="I49" s="48"/>
       <c r="K49" s="4">
         <v>6</v>
       </c>
@@ -3481,18 +3519,18 @@
       <c r="Q49" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="36"/>
+      <c r="R49" s="42"/>
     </row>
     <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="45"/>
-      <c r="I50" s="52"/>
+      <c r="I50" s="48"/>
       <c r="K50" s="4">
         <v>7</v>
       </c>
@@ -3508,18 +3546,18 @@
       <c r="O50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R50" s="36"/>
+      <c r="R50" s="42"/>
     </row>
     <row r="51" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="45"/>
-      <c r="I51" s="52"/>
+      <c r="I51" s="48"/>
       <c r="K51" s="4">
         <v>8</v>
       </c>
@@ -3535,18 +3573,18 @@
       <c r="O51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R51" s="36"/>
+      <c r="R51" s="42"/>
     </row>
     <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
       <c r="H52" s="45"/>
-      <c r="I52" s="52"/>
+      <c r="I52" s="48"/>
       <c r="K52" s="4">
         <v>9</v>
       </c>
@@ -3562,18 +3600,18 @@
       <c r="O52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R52" s="36"/>
+      <c r="R52" s="42"/>
     </row>
     <row r="53" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="46"/>
-      <c r="I53" s="53"/>
+      <c r="I53" s="49"/>
       <c r="J53" s="23"/>
       <c r="K53" s="14">
         <v>10</v>
@@ -3596,38 +3634,36 @@
       <c r="Q53" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="R53" s="37"/>
+      <c r="R53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="R44:R53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="G44:G53"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="H44:H53"/>
-    <mergeCell ref="I44:I53"/>
-    <mergeCell ref="R2:R8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="R26:R34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="R35:R40"/>
+    <mergeCell ref="F26:F34"/>
+    <mergeCell ref="G26:G34"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="H26:H34"/>
+    <mergeCell ref="I26:I34"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="C26:C34"/>
     <mergeCell ref="D26:D34"/>
@@ -3644,32 +3680,34 @@
     <mergeCell ref="I17:I25"/>
     <mergeCell ref="R17:R25"/>
     <mergeCell ref="F9:F16"/>
-    <mergeCell ref="R26:R34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="R35:R40"/>
-    <mergeCell ref="F26:F34"/>
-    <mergeCell ref="G26:G34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="H26:H34"/>
-    <mergeCell ref="I26:I34"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="R2:R8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="R44:R53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="I44:I53"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576 I9">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
@@ -3731,13 +3769,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FAEA6D-28C9-4A30-A6D3-1472532CD6D8}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20:R33"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3823,28 +3859,30 @@
       <c r="A2" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="38">
         <v>1</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="47"/>
+        <v>183</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>81</v>
+      </c>
       <c r="J2" s="21"/>
       <c r="K2" s="13">
         <v>1</v>
@@ -3863,18 +3901,18 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="35"/>
+      <c r="R2" s="41"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="45"/>
-      <c r="I3" s="48"/>
+      <c r="I3" s="56"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
@@ -3890,18 +3928,18 @@
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="36"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="45"/>
-      <c r="I4" s="48"/>
+      <c r="I4" s="56"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -3917,18 +3955,18 @@
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="36"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="45"/>
-      <c r="I5" s="48"/>
+      <c r="I5" s="56"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
@@ -3944,18 +3982,18 @@
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="36"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="48"/>
+      <c r="I6" s="56"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -3966,29 +4004,29 @@
         <v>160</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="Q6" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R6" s="36"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="48"/>
+      <c r="I7" s="56"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
@@ -4004,18 +4042,18 @@
       <c r="O7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="36"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="48"/>
+      <c r="I8" s="56"/>
       <c r="K8" s="4">
         <v>7</v>
       </c>
@@ -4029,26 +4067,20 @@
         <v>169</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q8" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="36"/>
-    </row>
-    <row r="9" spans="1:19" ht="108" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="R8" s="42"/>
+    </row>
+    <row r="9" spans="1:19" ht="132" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="48"/>
+      <c r="I9" s="56"/>
       <c r="K9" s="4">
         <v>8</v>
       </c>
@@ -4065,23 +4097,23 @@
         <v>89</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="R9" s="36"/>
-    </row>
-    <row r="10" spans="1:19" ht="108" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+        <v>181</v>
+      </c>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="56"/>
       <c r="K10" s="4">
         <v>9</v>
       </c>
@@ -4095,26 +4127,20 @@
         <v>161</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="R10" s="36"/>
-    </row>
-    <row r="11" spans="1:19" ht="108" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="R10" s="42"/>
+    </row>
+    <row r="11" spans="1:19" ht="216" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="48"/>
+      <c r="I11" s="56"/>
       <c r="K11" s="4">
         <v>10</v>
       </c>
@@ -4131,23 +4157,23 @@
         <v>89</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="R11" s="36"/>
+        <v>181</v>
+      </c>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="56"/>
       <c r="K12" s="4">
         <v>11</v>
       </c>
@@ -4163,18 +4189,18 @@
       <c r="O12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="36"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="56"/>
       <c r="K13" s="4">
         <v>12</v>
       </c>
@@ -4190,18 +4216,18 @@
       <c r="O13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="36"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="56"/>
       <c r="K14" s="4">
         <v>13</v>
       </c>
@@ -4217,18 +4243,18 @@
       <c r="O14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="48"/>
+      <c r="I15" s="56"/>
       <c r="K15" s="4">
         <v>14</v>
       </c>
@@ -4244,18 +4270,18 @@
       <c r="O15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="48"/>
+      <c r="I16" s="56"/>
       <c r="K16" s="4">
         <v>15</v>
       </c>
@@ -4271,18 +4297,18 @@
       <c r="O16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="36"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="48"/>
+      <c r="I17" s="56"/>
       <c r="K17" s="4">
         <v>16</v>
       </c>
@@ -4298,18 +4324,18 @@
       <c r="O17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="36"/>
-    </row>
-    <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="R17" s="42"/>
+    </row>
+    <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="56"/>
       <c r="K18" s="4">
         <v>17</v>
       </c>
@@ -4320,29 +4346,23 @@
         <v>167</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="R18" s="36"/>
-    </row>
-    <row r="19" spans="1:18" ht="84.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+        <v>46</v>
+      </c>
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="49"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="23"/>
       <c r="K19" s="14">
         <v>18</v>
@@ -4360,35 +4380,41 @@
         <v>89</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="R19" s="37"/>
+        <v>181</v>
+      </c>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="41" t="s">
+      <c r="D20" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>2</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="47"/>
+      <c r="H20" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>81</v>
+      </c>
       <c r="J20" s="21"/>
       <c r="K20" s="13">
         <v>1</v>
@@ -4407,446 +4433,988 @@
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="25"/>
-      <c r="R20" s="35"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58">
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="56"/>
+      <c r="K21" s="4">
         <v>2</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="56"/>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="O22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="56"/>
+      <c r="K23" s="4">
+        <v>4</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="56"/>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="N21" s="58" t="s">
+      <c r="M24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="56"/>
+      <c r="K25" s="4">
+        <v>6</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="Q25" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="56"/>
+      <c r="K26" s="4">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q21" s="59" t="s">
+      <c r="P26" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="56"/>
+      <c r="K27" s="4">
+        <v>8</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="56"/>
+      <c r="K28" s="4">
+        <v>9</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="56"/>
+      <c r="K29" s="4">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="R29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="56"/>
+      <c r="K30" s="4">
+        <v>11</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="R21" s="36"/>
-    </row>
-    <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58">
-        <v>3</v>
-      </c>
-      <c r="L22" s="58" t="s">
+      <c r="N30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R30" s="42"/>
+    </row>
+    <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="56"/>
+      <c r="K31" s="4">
+        <v>12</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M22" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="O22" s="58" t="s">
+      <c r="M31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q22" s="59" t="s">
+      <c r="P31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q31" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R22" s="36"/>
-    </row>
-    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58">
-        <v>4</v>
-      </c>
-      <c r="L23" s="58" t="s">
+      <c r="R31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="56"/>
+      <c r="L32" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M23" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="N23" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58">
-        <v>5</v>
-      </c>
-      <c r="L24" s="58" t="s">
+      <c r="M32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M24" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="N24" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="O24" s="58" t="s">
+      <c r="O32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q24" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="R24" s="36"/>
-    </row>
-    <row r="25" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58">
-        <v>6</v>
-      </c>
-      <c r="L25" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="N25" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="O25" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="R25" s="36"/>
-    </row>
-    <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58">
-        <v>7</v>
-      </c>
-      <c r="L26" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="M26" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="N26" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="O26" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="R26" s="36"/>
-    </row>
-    <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58">
-        <v>8</v>
-      </c>
-      <c r="L27" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="M27" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="N27" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="O27" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P27" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q27" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="R27" s="36"/>
-    </row>
-    <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58">
-        <v>9</v>
-      </c>
-      <c r="L28" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="M28" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="N28" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="O28" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="36"/>
-    </row>
-    <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58">
-        <v>10</v>
-      </c>
-      <c r="L29" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="M29" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="N29" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="O29" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P29" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q29" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="R29" s="36"/>
-    </row>
-    <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58">
-        <v>11</v>
-      </c>
-      <c r="L30" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="M30" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="N30" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="O30" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q30" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="R30" s="36"/>
-    </row>
-    <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58">
-        <v>12</v>
-      </c>
-      <c r="L31" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="M31" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="N31" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="O31" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q31" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="R31" s="36"/>
-    </row>
-    <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="M32" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="N32" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="O32" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="R32" s="36"/>
+      <c r="Q32" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="46"/>
-      <c r="I33" s="49"/>
+      <c r="I33" s="57"/>
       <c r="J33" s="23"/>
       <c r="K33" s="14">
         <v>13</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="27"/>
-      <c r="R33" s="37"/>
+      <c r="R33" s="43"/>
+    </row>
+    <row r="34" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="38">
+        <v>1</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="41"/>
+    </row>
+    <row r="35" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="61">
+        <v>2</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M35" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N35" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61">
+        <v>3</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="M36" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="N36" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="61">
+        <v>4</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N37" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" s="42"/>
+    </row>
+    <row r="38" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="36"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="61">
+        <v>5</v>
+      </c>
+      <c r="L38" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="R38" s="42"/>
+    </row>
+    <row r="39" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61">
+        <v>6</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N39" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="42"/>
+    </row>
+    <row r="40" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A40" s="36"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="61">
+        <v>7</v>
+      </c>
+      <c r="L40" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="N40" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="O40" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="42"/>
+    </row>
+    <row r="41" spans="1:18" ht="132" x14ac:dyDescent="0.2">
+      <c r="A41" s="36"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="61">
+        <v>8</v>
+      </c>
+      <c r="L41" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M41" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="O41" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R41" s="42"/>
+    </row>
+    <row r="42" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A42" s="36"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="61">
+        <v>9</v>
+      </c>
+      <c r="L42" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="M42" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="N42" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="O42" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" s="42"/>
+    </row>
+    <row r="43" spans="1:18" ht="216" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="61">
+        <v>10</v>
+      </c>
+      <c r="L43" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M43" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N43" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="O43" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q43" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R43" s="42"/>
+    </row>
+    <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A44" s="36"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="61">
+        <v>11</v>
+      </c>
+      <c r="L44" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M44" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="N44" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="O44" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="R44" s="42"/>
+    </row>
+    <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A45" s="36"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="61">
+        <v>12</v>
+      </c>
+      <c r="L45" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="42"/>
+    </row>
+    <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="36"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="61">
+        <v>13</v>
+      </c>
+      <c r="L46" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="M46" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="O46" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="42"/>
+    </row>
+    <row r="47" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A47" s="36"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="61">
+        <v>14</v>
+      </c>
+      <c r="L47" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M47" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O47" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="42"/>
+    </row>
+    <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A48" s="36"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="61">
+        <v>15</v>
+      </c>
+      <c r="L48" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="M48" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="N48" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="O48" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="42"/>
+    </row>
+    <row r="49" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A49" s="36"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="61">
+        <v>16</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O49" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="42"/>
+    </row>
+    <row r="50" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A50" s="36"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="61">
+        <v>17</v>
+      </c>
+      <c r="L50" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="M50" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R50" s="42"/>
+    </row>
+    <row r="51" spans="1:18" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="14">
+        <v>18</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="R51" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="G20:G33"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="I20:I33"/>
-    <mergeCell ref="R20:R33"/>
-    <mergeCell ref="A20:A33"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="C20:C33"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="E20:E33"/>
+  <mergeCells count="30">
+    <mergeCell ref="F34:F51"/>
+    <mergeCell ref="G34:G51"/>
+    <mergeCell ref="H34:H51"/>
+    <mergeCell ref="I34:I51"/>
+    <mergeCell ref="R34:R51"/>
+    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="B34:B51"/>
+    <mergeCell ref="C34:C51"/>
+    <mergeCell ref="D34:D51"/>
+    <mergeCell ref="E34:E51"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="H2:H19"/>
     <mergeCell ref="I2:I19"/>
@@ -4857,6 +5425,16 @@
     <mergeCell ref="D2:D19"/>
     <mergeCell ref="E2:E19"/>
     <mergeCell ref="F2:F19"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="C20:C33"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="E20:E33"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="G20:G33"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="I20:I33"/>
+    <mergeCell ref="R20:R33"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
@@ -4902,7 +5480,12 @@
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2:I19" r:id="rId1" display="Film" xr:uid="{37CF82FC-BE5F-47C6-A7D5-4DBF4E4A88B3}"/>
+    <hyperlink ref="I20:I33" r:id="rId2" display="Film" xr:uid="{3BD62871-F54B-4821-A0B8-3F3ED0CEF1C1}"/>
+    <hyperlink ref="I34:I51" r:id="rId3" display="Film" xr:uid="{0D4DB380-4D0A-44C2-99D3-6153808793C7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testy [Dołącz-Mises]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroz_\Desktop\Test [Mises]\Mises-testy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC5D48D-7C79-4948-B4C3-D1BADC097FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="221">
   <si>
     <t>Nazwa</t>
   </si>
@@ -711,12 +710,21 @@
   <si>
     <t>2023-08-25
 10:30</t>
+  </si>
+  <si>
+    <t>Kontrola działania nawigacji ze strony paska nawigacyjnego strony"Raporty"</t>
+  </si>
+  <si>
+    <t>Dostęp do interneteu, uruchomiona strona "Raporty"</t>
+  </si>
+  <si>
+    <t>Użycie linku zawartego w logo instytutu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -942,7 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1026,11 +1034,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1050,15 +1083,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,15 +1091,6 @@
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1089,7 +1104,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1101,17 +1128,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1136,203 @@
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6464"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6464"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1617,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -1633,10 +1846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1691,10 +1904,10 @@
       <c r="B8" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1729,7 +1942,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="40" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1737,47 +1950,47 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="40"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="40"/>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="40"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="40"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="40"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="40"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="40"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="40"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="40"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1791,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1843,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -1921,15 +2134,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1 I1:I1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1938,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -2029,31 +2242,31 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="47">
         <v>1</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="53" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="21"/>
@@ -2079,15 +2292,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="51"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="54"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
@@ -2106,15 +2319,15 @@
       <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="51"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="54"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -2133,15 +2346,15 @@
       <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="51"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="54"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
@@ -2160,15 +2373,15 @@
       <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="51"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="54"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -2187,15 +2400,15 @@
       <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="51"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="54"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
@@ -2214,15 +2427,15 @@
       <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="52"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="23"/>
       <c r="K8" s="14">
         <v>7</v>
@@ -2244,31 +2457,31 @@
       <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="44">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="47">
         <v>1</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="56" t="s">
         <v>81</v>
       </c>
       <c r="J9" s="21"/>
@@ -2294,15 +2507,15 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="53"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="56"/>
       <c r="K10" s="4">
         <v>2</v>
       </c>
@@ -2321,15 +2534,15 @@
       <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="53"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="56"/>
       <c r="K11" s="4">
         <v>3</v>
       </c>
@@ -2348,15 +2561,15 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="53"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56"/>
       <c r="K12" s="4">
         <v>4</v>
       </c>
@@ -2381,15 +2594,15 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="53"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="56"/>
       <c r="K13" s="4">
         <v>5</v>
       </c>
@@ -2408,15 +2621,15 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="53"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="56"/>
       <c r="K14" s="4">
         <v>6</v>
       </c>
@@ -2435,15 +2648,15 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="53"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="56"/>
       <c r="K15" s="4">
         <v>7</v>
       </c>
@@ -2462,15 +2675,15 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="53"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="23"/>
       <c r="K16" s="4">
         <v>8</v>
@@ -2492,31 +2705,31 @@
       <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="A17" s="44">
         <v>3</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="47">
         <v>1</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="53" t="s">
         <v>81</v>
       </c>
       <c r="J17" s="21"/>
@@ -2540,15 +2753,15 @@
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="51"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
       <c r="K18" s="4">
         <v>2</v>
       </c>
@@ -2568,15 +2781,15 @@
       <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="51"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="54"/>
       <c r="K19" s="4">
         <v>3</v>
       </c>
@@ -2596,15 +2809,15 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="51"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="54"/>
       <c r="K20" s="4">
         <v>4</v>
       </c>
@@ -2624,15 +2837,15 @@
       <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="54"/>
       <c r="K21" s="4">
         <v>5</v>
       </c>
@@ -2652,15 +2865,15 @@
       <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="51"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="54"/>
       <c r="K22" s="4">
         <v>6</v>
       </c>
@@ -2680,15 +2893,15 @@
       <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="51"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="54"/>
       <c r="K23" s="4">
         <v>7</v>
       </c>
@@ -2708,15 +2921,15 @@
       <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="51"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="54"/>
       <c r="L24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2733,15 +2946,15 @@
       <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="52"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="23"/>
       <c r="K25" s="4">
         <v>8</v>
@@ -2763,31 +2976,31 @@
       <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="44">
         <v>4</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="47">
         <v>1</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="53" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="21"/>
@@ -2815,15 +3028,15 @@
       <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="51"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="54"/>
       <c r="K27" s="4">
         <v>2</v>
       </c>
@@ -2842,15 +3055,15 @@
       <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="51"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="54"/>
       <c r="K28" s="4">
         <v>3</v>
       </c>
@@ -2869,15 +3082,15 @@
       <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="51"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="54"/>
       <c r="K29" s="4">
         <v>4</v>
       </c>
@@ -2896,15 +3109,15 @@
       <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="51"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="54"/>
       <c r="K30" s="4">
         <v>5</v>
       </c>
@@ -2923,15 +3136,15 @@
       <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="51"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="54"/>
       <c r="K31" s="4">
         <v>6</v>
       </c>
@@ -2950,15 +3163,15 @@
       <c r="R31" s="42"/>
     </row>
     <row r="32" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="51"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="54"/>
       <c r="K32" s="4">
         <v>7</v>
       </c>
@@ -2977,15 +3190,15 @@
       <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="51"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="54"/>
       <c r="K33" s="4">
         <v>8</v>
       </c>
@@ -3004,15 +3217,15 @@
       <c r="R33" s="42"/>
     </row>
     <row r="34" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="51"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="54"/>
       <c r="K34" s="4">
         <v>9</v>
       </c>
@@ -3031,31 +3244,31 @@
       <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35">
+      <c r="A35" s="44">
         <v>5</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="47">
         <v>1</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="53" t="s">
         <v>81</v>
       </c>
       <c r="J35" s="21"/>
@@ -3079,15 +3292,15 @@
       <c r="R35" s="41"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="51"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="54"/>
       <c r="K36" s="4">
         <v>2</v>
       </c>
@@ -3107,15 +3320,15 @@
       <c r="R36" s="42"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="51"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="54"/>
       <c r="K37" s="4">
         <v>4</v>
       </c>
@@ -3135,15 +3348,15 @@
       <c r="R37" s="42"/>
     </row>
     <row r="38" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="51"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="54"/>
       <c r="K38" s="4">
         <v>5</v>
       </c>
@@ -3163,15 +3376,15 @@
       <c r="R38" s="42"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="51"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="54"/>
       <c r="K39" s="4">
         <v>7</v>
       </c>
@@ -3191,15 +3404,15 @@
       <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="51"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="54"/>
       <c r="K40" s="4">
         <v>8</v>
       </c>
@@ -3219,31 +3432,31 @@
       <c r="R40" s="42"/>
     </row>
     <row r="41" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="35">
+      <c r="A41" s="44">
         <v>6</v>
       </c>
-      <c r="B41" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="47">
         <v>1</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="53" t="s">
         <v>81</v>
       </c>
       <c r="J41" s="21"/>
@@ -3267,15 +3480,15 @@
       <c r="R41" s="41"/>
     </row>
     <row r="42" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="51"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="54"/>
       <c r="K42" s="4">
         <v>2</v>
       </c>
@@ -3295,15 +3508,15 @@
       <c r="R42" s="42"/>
     </row>
     <row r="43" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="52"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="23"/>
       <c r="K43" s="14">
         <v>4</v>
@@ -3325,31 +3538,31 @@
       <c r="R43" s="43"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="35">
+      <c r="A44" s="44">
         <v>7</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="47">
         <v>2</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="47" t="s">
+      <c r="I44" s="57" t="s">
         <v>81</v>
       </c>
       <c r="J44" s="21"/>
@@ -3375,15 +3588,15 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="48"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="58"/>
       <c r="K45" s="4">
         <v>2</v>
       </c>
@@ -3402,15 +3615,15 @@
       <c r="R45" s="42"/>
     </row>
     <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="48"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="58"/>
       <c r="K46" s="4">
         <v>3</v>
       </c>
@@ -3429,15 +3642,15 @@
       <c r="R46" s="42"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="48"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="58"/>
       <c r="K47" s="4">
         <v>4</v>
       </c>
@@ -3462,15 +3675,15 @@
       <c r="R47" s="42"/>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="48"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="58"/>
       <c r="K48" s="4">
         <v>5</v>
       </c>
@@ -3489,15 +3702,15 @@
       <c r="R48" s="42"/>
     </row>
     <row r="49" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="48"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="58"/>
       <c r="K49" s="4">
         <v>6</v>
       </c>
@@ -3522,15 +3735,15 @@
       <c r="R49" s="42"/>
     </row>
     <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="48"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="58"/>
       <c r="K50" s="4">
         <v>7</v>
       </c>
@@ -3549,15 +3762,15 @@
       <c r="R50" s="42"/>
     </row>
     <row r="51" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="48"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="58"/>
       <c r="K51" s="4">
         <v>8</v>
       </c>
@@ -3576,15 +3789,15 @@
       <c r="R51" s="42"/>
     </row>
     <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="48"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="58"/>
       <c r="K52" s="4">
         <v>9</v>
       </c>
@@ -3603,15 +3816,15 @@
       <c r="R52" s="42"/>
     </row>
     <row r="53" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="49"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="59"/>
       <c r="J53" s="23"/>
       <c r="K53" s="14">
         <v>10</v>
@@ -3638,16 +3851,50 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="R44:R53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="R2:R8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="R9:R16"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="H17:H25"/>
+    <mergeCell ref="I17:I25"/>
+    <mergeCell ref="R17:R25"/>
+    <mergeCell ref="F9:F16"/>
     <mergeCell ref="R26:R34"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="C35:C40"/>
@@ -3664,103 +3911,69 @@
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="H26:H34"/>
     <mergeCell ref="I26:I34"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="R9:R16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="G17:G25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="H17:H25"/>
-    <mergeCell ref="I17:I25"/>
-    <mergeCell ref="R17:R25"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="R2:R8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="R44:R53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="G44:G53"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="H44:H53"/>
-    <mergeCell ref="I44:I53"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576 I9">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>"tak"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD KRYTYCZNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD ISTOTNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ISTOTNA USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
       <formula>"USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="equal">
       <formula>"USTERKA PODRZĘDNA"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 B2:B1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 B2:B1048576">
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{8CC67DAF-33CC-4100-A4B1-063D5ACDBE7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
       <formula1>"BŁĄD KRYTYCZNY,BŁĄD ISTOTNY,BŁĄD,ISTOTNA USTERKA,USTERKA,USTERKA PODRZĘDNA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2:I8" r:id="rId1" display="Film" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="I9:I16" r:id="rId2" display="Film" xr:uid="{6DC93508-5D0C-4FA3-BF81-2958D9FB8119}"/>
-    <hyperlink ref="I17:I25" r:id="rId3" display="Film" xr:uid="{B4526F20-6882-43F8-8DA4-A5ACE2018E34}"/>
-    <hyperlink ref="I41:I43" r:id="rId4" display="Film" xr:uid="{A3F5C2E5-7DEB-4912-9B36-8E63D2C5F5FA}"/>
-    <hyperlink ref="I35:I40" r:id="rId5" display="Film" xr:uid="{AC81D4FD-EE75-474D-8695-E31AF557C560}"/>
-    <hyperlink ref="I26:I34" r:id="rId6" display="Film" xr:uid="{CAEE7866-E7A3-4709-9D30-644EDC9DC7B4}"/>
-    <hyperlink ref="I44:I53" r:id="rId7" display="Film" xr:uid="{0F0C42AF-A2A3-43D2-BD2E-734C48BE1BE8}"/>
+    <hyperlink ref="I2:I8" r:id="rId1" display="Film"/>
+    <hyperlink ref="I9:I16" r:id="rId2" display="Film"/>
+    <hyperlink ref="I17:I25" r:id="rId3" display="Film"/>
+    <hyperlink ref="I41:I43" r:id="rId4" display="Film"/>
+    <hyperlink ref="I35:I40" r:id="rId5" display="Film"/>
+    <hyperlink ref="I26:I34" r:id="rId6" display="Film"/>
+    <hyperlink ref="I44:I53" r:id="rId7" display="Film"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -3768,12 +3981,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FAEA6D-28C9-4A30-A6D3-1472532CD6D8}">
-  <dimension ref="A1:S51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34:I51"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3856,31 +4069,31 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="47">
         <v>1</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="62" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="21"/>
@@ -3904,15 +4117,15 @@
       <c r="R2" s="41"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="56"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="63"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
@@ -3931,15 +4144,15 @@
       <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="63"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -3958,15 +4171,15 @@
       <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="56"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="63"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
@@ -3985,15 +4198,15 @@
       <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="56"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="63"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -4018,15 +4231,15 @@
       <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="56"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="63"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
@@ -4045,15 +4258,15 @@
       <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="56"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="63"/>
       <c r="K8" s="4">
         <v>7</v>
       </c>
@@ -4072,15 +4285,15 @@
       <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:19" ht="132" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="56"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="63"/>
       <c r="K9" s="4">
         <v>8</v>
       </c>
@@ -4105,15 +4318,15 @@
       <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="56"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="63"/>
       <c r="K10" s="4">
         <v>9</v>
       </c>
@@ -4132,15 +4345,15 @@
       <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:19" ht="216" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="56"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="63"/>
       <c r="K11" s="4">
         <v>10</v>
       </c>
@@ -4165,15 +4378,15 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="56"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="63"/>
       <c r="K12" s="4">
         <v>11</v>
       </c>
@@ -4192,15 +4405,15 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="56"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="63"/>
       <c r="K13" s="4">
         <v>12</v>
       </c>
@@ -4219,15 +4432,15 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="56"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="63"/>
       <c r="K14" s="4">
         <v>13</v>
       </c>
@@ -4246,15 +4459,15 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="56"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="63"/>
       <c r="K15" s="4">
         <v>14</v>
       </c>
@@ -4273,15 +4486,15 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="56"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="63"/>
       <c r="K16" s="4">
         <v>15</v>
       </c>
@@ -4300,15 +4513,15 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="56"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="63"/>
       <c r="K17" s="4">
         <v>16</v>
       </c>
@@ -4327,15 +4540,15 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="56"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="63"/>
       <c r="K18" s="4">
         <v>17</v>
       </c>
@@ -4354,15 +4567,15 @@
       <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="57"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="23"/>
       <c r="K19" s="14">
         <v>18</v>
@@ -4388,31 +4601,31 @@
       <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="47">
         <v>2</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="62" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="21"/>
@@ -4436,15 +4649,15 @@
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="56"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="63"/>
       <c r="K21" s="4">
         <v>2</v>
       </c>
@@ -4469,15 +4682,15 @@
       <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="56"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="63"/>
       <c r="K22" s="4">
         <v>3</v>
       </c>
@@ -4502,15 +4715,15 @@
       <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="56"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="63"/>
       <c r="K23" s="4">
         <v>4</v>
       </c>
@@ -4529,15 +4742,15 @@
       <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="56"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="63"/>
       <c r="K24" s="4">
         <v>5</v>
       </c>
@@ -4562,15 +4775,15 @@
       <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="56"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="63"/>
       <c r="K25" s="4">
         <v>6</v>
       </c>
@@ -4595,15 +4808,15 @@
       <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="56"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="63"/>
       <c r="K26" s="4">
         <v>7</v>
       </c>
@@ -4628,15 +4841,15 @@
       <c r="R26" s="42"/>
     </row>
     <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="56"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="63"/>
       <c r="K27" s="4">
         <v>8</v>
       </c>
@@ -4661,15 +4874,15 @@
       <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="63"/>
       <c r="K28" s="4">
         <v>9</v>
       </c>
@@ -4688,15 +4901,15 @@
       <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="56"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="63"/>
       <c r="K29" s="4">
         <v>10</v>
       </c>
@@ -4721,15 +4934,15 @@
       <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="56"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="63"/>
       <c r="K30" s="4">
         <v>11</v>
       </c>
@@ -4754,15 +4967,15 @@
       <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="56"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="63"/>
       <c r="K31" s="4">
         <v>12</v>
       </c>
@@ -4787,15 +5000,15 @@
       <c r="R31" s="42"/>
     </row>
     <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="56"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="63"/>
       <c r="L32" s="4" t="s">
         <v>165</v>
       </c>
@@ -4814,15 +5027,15 @@
       <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="57"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="23"/>
       <c r="K33" s="14">
         <v>13</v>
@@ -4844,31 +5057,31 @@
       <c r="R33" s="43"/>
     </row>
     <row r="34" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="47">
         <v>1</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="62" t="s">
         <v>81</v>
       </c>
       <c r="J34" s="21"/>
@@ -4892,26 +5105,26 @@
       <c r="R34" s="41"/>
     </row>
     <row r="35" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="61">
+      <c r="A35" s="45"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37">
         <v>2</v>
       </c>
-      <c r="L35" s="61" t="s">
+      <c r="L35" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M35" s="61" t="s">
+      <c r="M35" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N35" s="61" t="s">
+      <c r="N35" s="37" t="s">
         <v>158</v>
       </c>
       <c r="O35" s="4" t="s">
@@ -4920,26 +5133,26 @@
       <c r="R35" s="42"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="61">
+      <c r="A36" s="45"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37">
         <v>3</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="L36" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="M36" s="61" t="s">
+      <c r="M36" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="N36" s="61" t="s">
+      <c r="N36" s="37" t="s">
         <v>159</v>
       </c>
       <c r="O36" s="4" t="s">
@@ -4948,26 +5161,26 @@
       <c r="R36" s="42"/>
     </row>
     <row r="37" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="61">
+      <c r="A37" s="45"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37">
         <v>4</v>
       </c>
-      <c r="L37" s="61" t="s">
+      <c r="L37" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M37" s="61" t="s">
+      <c r="M37" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N37" s="61" t="s">
+      <c r="N37" s="37" t="s">
         <v>158</v>
       </c>
       <c r="O37" s="4" t="s">
@@ -4976,23 +5189,23 @@
       <c r="R37" s="42"/>
     </row>
     <row r="38" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="61">
+      <c r="A38" s="45"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37">
         <v>5</v>
       </c>
-      <c r="L38" s="61" t="s">
+      <c r="L38" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="M38" s="61" t="s">
+      <c r="M38" s="37" t="s">
         <v>160</v>
       </c>
       <c r="N38" s="4" t="s">
@@ -5010,26 +5223,26 @@
       <c r="R38" s="42"/>
     </row>
     <row r="39" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61">
+      <c r="A39" s="45"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37">
         <v>6</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="L39" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M39" s="61" t="s">
+      <c r="M39" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N39" s="61" t="s">
+      <c r="N39" s="37" t="s">
         <v>158</v>
       </c>
       <c r="O39" s="4" t="s">
@@ -5038,59 +5251,59 @@
       <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="61">
+      <c r="A40" s="45"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37">
         <v>7</v>
       </c>
-      <c r="L40" s="61" t="s">
+      <c r="L40" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="M40" s="61" t="s">
+      <c r="M40" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="N40" s="61" t="s">
+      <c r="N40" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="O40" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="62"/>
+      <c r="O40" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="38"/>
       <c r="R40" s="42"/>
     </row>
     <row r="41" spans="1:18" ht="132" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="61">
+      <c r="A41" s="45"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="37">
         <v>8</v>
       </c>
-      <c r="L41" s="61" t="s">
+      <c r="L41" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M41" s="61" t="s">
+      <c r="M41" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N41" s="61" t="s">
+      <c r="N41" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="O41" s="61" t="s">
+      <c r="O41" s="37" t="s">
         <v>89</v>
       </c>
       <c r="P41" s="4" t="s">
@@ -5102,57 +5315,57 @@
       <c r="R41" s="42"/>
     </row>
     <row r="42" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="61">
+      <c r="A42" s="45"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37">
         <v>9</v>
       </c>
-      <c r="L42" s="61" t="s">
+      <c r="L42" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="M42" s="61" t="s">
+      <c r="M42" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="N42" s="61" t="s">
+      <c r="N42" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="O42" s="61" t="s">
+      <c r="O42" s="37" t="s">
         <v>46</v>
       </c>
       <c r="R42" s="42"/>
     </row>
     <row r="43" spans="1:18" ht="216" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="61">
+      <c r="A43" s="45"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37">
         <v>10</v>
       </c>
-      <c r="L43" s="61" t="s">
+      <c r="L43" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="61" t="s">
+      <c r="M43" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N43" s="61" t="s">
+      <c r="N43" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="O43" s="61" t="s">
+      <c r="O43" s="37" t="s">
         <v>89</v>
       </c>
       <c r="P43" s="4" t="s">
@@ -5164,201 +5377,201 @@
       <c r="R43" s="42"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="61">
+      <c r="A44" s="45"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37">
         <v>11</v>
       </c>
-      <c r="L44" s="61" t="s">
+      <c r="L44" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="M44" s="61" t="s">
+      <c r="M44" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="N44" s="61" t="s">
+      <c r="N44" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="O44" s="61" t="s">
+      <c r="O44" s="37" t="s">
         <v>46</v>
       </c>
       <c r="R44" s="42"/>
     </row>
     <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="61">
+      <c r="A45" s="45"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37">
         <v>12</v>
       </c>
-      <c r="L45" s="61" t="s">
+      <c r="L45" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M45" s="61" t="s">
+      <c r="M45" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N45" s="61" t="s">
+      <c r="N45" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="O45" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="62"/>
+      <c r="O45" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="38"/>
       <c r="R45" s="42"/>
     </row>
     <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="61">
+      <c r="A46" s="45"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37">
         <v>13</v>
       </c>
-      <c r="L46" s="61" t="s">
+      <c r="L46" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="M46" s="61" t="s">
+      <c r="M46" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="N46" s="61" t="s">
+      <c r="N46" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="O46" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="62"/>
+      <c r="O46" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="38"/>
       <c r="R46" s="42"/>
     </row>
     <row r="47" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="61">
+      <c r="A47" s="45"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37">
         <v>14</v>
       </c>
-      <c r="L47" s="61" t="s">
+      <c r="L47" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M47" s="61" t="s">
+      <c r="M47" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N47" s="61" t="s">
+      <c r="N47" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="O47" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="62"/>
+      <c r="O47" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="38"/>
       <c r="R47" s="42"/>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="61">
+      <c r="A48" s="45"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37">
         <v>15</v>
       </c>
-      <c r="L48" s="61" t="s">
+      <c r="L48" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="M48" s="61" t="s">
+      <c r="M48" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="N48" s="61" t="s">
+      <c r="N48" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="O48" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="62"/>
+      <c r="O48" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="38"/>
       <c r="R48" s="42"/>
     </row>
     <row r="49" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="61">
+      <c r="A49" s="45"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="37">
         <v>16</v>
       </c>
-      <c r="L49" s="61" t="s">
+      <c r="L49" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="M49" s="61" t="s">
+      <c r="M49" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="N49" s="61" t="s">
+      <c r="N49" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="O49" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="62"/>
+      <c r="O49" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="38"/>
       <c r="R49" s="42"/>
     </row>
     <row r="50" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="61">
+      <c r="A50" s="45"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37">
         <v>17</v>
       </c>
-      <c r="L50" s="61" t="s">
+      <c r="L50" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="M50" s="61" t="s">
+      <c r="M50" s="37" t="s">
         <v>167</v>
       </c>
       <c r="N50" s="4" t="s">
@@ -5370,15 +5583,15 @@
       <c r="R50" s="42"/>
     </row>
     <row r="51" spans="1:18" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="57"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="64"/>
       <c r="J51" s="23"/>
       <c r="K51" s="14">
         <v>18</v>
@@ -5403,18 +5616,498 @@
       </c>
       <c r="R51" s="43"/>
     </row>
+    <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A52" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="47">
+        <v>1</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="50"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="33">
+        <v>1</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="M52" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="41"/>
+    </row>
+    <row r="53" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37">
+        <v>2</v>
+      </c>
+      <c r="L53" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M53" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N53" s="37"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="R53" s="42"/>
+    </row>
+    <row r="54" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37">
+        <v>3</v>
+      </c>
+      <c r="L54" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="M54" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="N54" s="37"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="R54" s="42"/>
+    </row>
+    <row r="55" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37">
+        <v>4</v>
+      </c>
+      <c r="L55" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N55" s="37"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="R55" s="42"/>
+    </row>
+    <row r="56" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37">
+        <v>5</v>
+      </c>
+      <c r="L56" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M56" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="R56" s="42"/>
+    </row>
+    <row r="57" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37">
+        <v>6</v>
+      </c>
+      <c r="L57" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M57" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N57" s="37"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="R57" s="42"/>
+    </row>
+    <row r="58" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37">
+        <v>7</v>
+      </c>
+      <c r="L58" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="42"/>
+    </row>
+    <row r="59" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37">
+        <v>8</v>
+      </c>
+      <c r="L59" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M59" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="34"/>
+      <c r="R59" s="42"/>
+    </row>
+    <row r="60" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37">
+        <v>9</v>
+      </c>
+      <c r="L60" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="34"/>
+      <c r="R60" s="42"/>
+    </row>
+    <row r="61" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A61" s="45"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37">
+        <v>10</v>
+      </c>
+      <c r="L61" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M61" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="34"/>
+      <c r="R61" s="42"/>
+    </row>
+    <row r="62" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37">
+        <v>11</v>
+      </c>
+      <c r="L62" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="M62" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="34"/>
+      <c r="R62" s="42"/>
+    </row>
+    <row r="63" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="37">
+        <v>12</v>
+      </c>
+      <c r="L63" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M63" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="42"/>
+    </row>
+    <row r="64" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A64" s="45"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="37">
+        <v>13</v>
+      </c>
+      <c r="L64" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="M64" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="42"/>
+    </row>
+    <row r="65" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A65" s="45"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="37">
+        <v>14</v>
+      </c>
+      <c r="L65" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M65" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="42"/>
+    </row>
+    <row r="66" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A66" s="45"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="37">
+        <v>15</v>
+      </c>
+      <c r="L66" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="M66" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="42"/>
+    </row>
+    <row r="67" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A67" s="45"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="37">
+        <v>16</v>
+      </c>
+      <c r="L67" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="M67" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="42"/>
+    </row>
+    <row r="68" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A68" s="45"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="37">
+        <v>17</v>
+      </c>
+      <c r="L68" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="M68" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="R68" s="42"/>
+    </row>
+    <row r="69" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="35">
+        <v>18</v>
+      </c>
+      <c r="L69" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="M69" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="F34:F51"/>
-    <mergeCell ref="G34:G51"/>
-    <mergeCell ref="H34:H51"/>
-    <mergeCell ref="I34:I51"/>
-    <mergeCell ref="R34:R51"/>
-    <mergeCell ref="A34:A51"/>
-    <mergeCell ref="B34:B51"/>
-    <mergeCell ref="C34:C51"/>
-    <mergeCell ref="D34:D51"/>
-    <mergeCell ref="E34:E51"/>
+  <mergeCells count="40">
+    <mergeCell ref="F52:F69"/>
+    <mergeCell ref="G52:G69"/>
+    <mergeCell ref="H52:H69"/>
+    <mergeCell ref="I52:I69"/>
+    <mergeCell ref="R52:R69"/>
+    <mergeCell ref="A52:A69"/>
+    <mergeCell ref="B52:B69"/>
+    <mergeCell ref="C52:C69"/>
+    <mergeCell ref="D52:D69"/>
+    <mergeCell ref="E52:E69"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="G20:G33"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="I20:I33"/>
+    <mergeCell ref="R20:R33"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="C20:C33"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="E20:E33"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="H2:H19"/>
     <mergeCell ref="I2:I19"/>
@@ -5425,65 +6118,101 @@
     <mergeCell ref="D2:D19"/>
     <mergeCell ref="E2:E19"/>
     <mergeCell ref="F2:F19"/>
-    <mergeCell ref="A20:A33"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="C20:C33"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="E20:E33"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="G20:G33"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="I20:I33"/>
-    <mergeCell ref="R20:R33"/>
+    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="B34:B51"/>
+    <mergeCell ref="C34:C51"/>
+    <mergeCell ref="D34:D51"/>
+    <mergeCell ref="E34:E51"/>
+    <mergeCell ref="F34:F51"/>
+    <mergeCell ref="G34:G51"/>
+    <mergeCell ref="H34:H51"/>
+    <mergeCell ref="I34:I51"/>
+    <mergeCell ref="R34:R51"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="B1:B51 B70:B1048576">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"tak"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="O1:O51 O70:O1048576">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="Q1:Q51 Q70:Q1048576">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD KRYTYCZNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD ISTOTNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="equal">
       <formula>"ISTOTNA USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="equal">
       <formula>"USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"USTERKA PODRZĘDNA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B69">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"NIE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"tak"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52:O69">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"TAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"NIE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q52:Q69">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"BŁĄD KRYTYCZNY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"BŁĄD ISTOTNY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"BŁĄD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"ISTOTNA USTERKA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"USTERKA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"USTERKA PODRZĘDNA"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{EC584E36-1352-4872-B630-26EF7FB99641}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
       <formula1>"BŁĄD KRYTYCZNY,BŁĄD ISTOTNY,BŁĄD,ISTOTNA USTERKA,USTERKA,USTERKA PODRZĘDNA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 O1:O1048576" xr:uid="{7ACD998E-99F8-4296-8618-35FF2D5CA65D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 B2:B1048576">
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2:I19" r:id="rId1" display="Film" xr:uid="{37CF82FC-BE5F-47C6-A7D5-4DBF4E4A88B3}"/>
-    <hyperlink ref="I20:I33" r:id="rId2" display="Film" xr:uid="{3BD62871-F54B-4821-A0B8-3F3ED0CEF1C1}"/>
-    <hyperlink ref="I34:I51" r:id="rId3" display="Film" xr:uid="{0D4DB380-4D0A-44C2-99D3-6153808793C7}"/>
+    <hyperlink ref="I2:I19" r:id="rId1" display="Film"/>
+    <hyperlink ref="I20:I33" r:id="rId2" display="Film"/>
+    <hyperlink ref="I34:I51" r:id="rId3" display="Film"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroz_\Desktop\Test [Mises]\Mises-testy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testy [Dołącz-Mises]\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5692BCC3-0307-4147-BCF1-9C02D02E1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="232">
   <si>
     <t>Nazwa</t>
   </si>
@@ -544,15 +545,9 @@
     <t>Zostaje otwarta strona https://mises.pl/o-nas</t>
   </si>
   <si>
-    <t>Otwarcie strony "o nas"</t>
-  </si>
-  <si>
     <t>Zostaje otwarta strona https://mises.pl/kontakt</t>
   </si>
   <si>
-    <t>Powrót do strony głównej</t>
-  </si>
-  <si>
     <t>Zostaje otwarta strona https://mises.pl/wsparcie</t>
   </si>
   <si>
@@ -565,31 +560,7 @@
     <t>Zostaje otwarta strona https://raporty.mises.pl/</t>
   </si>
   <si>
-    <t>Otwarcie strony "sklep"</t>
-  </si>
-  <si>
-    <t>Otwarcie strony "Kontakt"</t>
-  </si>
-  <si>
-    <t>Otwarcie strony "Wesprzyj nas"</t>
-  </si>
-  <si>
-    <t>Otwarcie strony "Dołącz"</t>
-  </si>
-  <si>
     <t>Zostaje otwarta strona https://mises.pl</t>
-  </si>
-  <si>
-    <t>Otwarcie strony "Raporty"</t>
-  </si>
-  <si>
-    <t>Otwarcie strony "Projekty"</t>
-  </si>
-  <si>
-    <t>Otwarcie strony "Eboki"</t>
-  </si>
-  <si>
-    <t>Otwarcie strony "Artykuły"</t>
   </si>
   <si>
     <t>Niespójny z wcześniejszymi podstronami link</t>
@@ -629,9 +600,6 @@
     <t>Pozostaje otwarta karta ze stroną główną</t>
   </si>
   <si>
-    <t>Otwarcie strony "Sklep"</t>
-  </si>
-  <si>
     <t>Menu niespójne ze stroną główną</t>
   </si>
   <si>
@@ -675,12 +643,6 @@
     <t>Dostęp do interneteu, uruchomiona strona "Artykuły"</t>
   </si>
   <si>
-    <t>Powrót do strony "Artykuły"</t>
-  </si>
-  <si>
-    <t>Otwarcie strony Głównej</t>
-  </si>
-  <si>
     <t>Skrolowanie do pod strony https://mises.pl/#projects</t>
   </si>
   <si>
@@ -719,12 +681,85 @@
   </si>
   <si>
     <t>Użycie linku zawartego w logo instytutu</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>Pozostje otwarta strona https://mises.pl/artykuly</t>
+  </si>
+  <si>
+    <t>Zostaje otwarta strona https://raporty.mises.pl/login</t>
+  </si>
+  <si>
+    <t>Scrolowanie do podstrony "Zarejestruj"</t>
+  </si>
+  <si>
+    <t>Scrolowanie do podstrony "Wesprzyj"</t>
+  </si>
+  <si>
+    <t>Przejście do podstrony https://raporty.mises.pl/#formIndicatorTop</t>
+  </si>
+  <si>
+    <t>Przejście do podstrony https://raporty.mises.pl/#formIndicator</t>
+  </si>
+  <si>
+    <t>Niespójna logika strony. Brak linku powrotnego do strony głównej.</t>
+  </si>
+  <si>
+    <t>2023-08-26
+18:30</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Artykuły"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony głównej</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Eboki"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Projekty"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Raporty"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "sklep"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "o nas"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Kontakt"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Wesprzyj nas"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Dołącz"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Sklep"</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony Głównej</t>
+  </si>
+  <si>
+    <t>Kliknięcie w link strony "Zaloguj"</t>
+  </si>
+  <si>
+    <t>Kontrola działania nawigacji ze strony paska nawigacyjnego strony"Sklep"</t>
+  </si>
+  <si>
+    <t>2_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1034,22 +1069,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,12 +1132,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1131,208 +1144,25 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6464"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b/>
@@ -1830,7 +1660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -1846,10 +1676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1904,10 +1734,10 @@
       <c r="B8" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1942,7 +1772,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1950,47 +1780,47 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="34"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="34"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="34"/>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="34"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="34"/>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="34"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="34"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="34"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="34"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="34"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="34"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="34"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2004,7 +1834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2056,7 +1886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -2134,15 +1964,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1 I1:I1048576">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2151,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
@@ -2242,31 +2072,31 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="44">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="41">
         <v>1</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="21"/>
@@ -2287,20 +2117,20 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="54"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="48"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
@@ -2316,18 +2146,18 @@
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="42"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="48"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -2343,18 +2173,18 @@
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="42"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="54"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
@@ -2370,18 +2200,18 @@
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="42"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="54"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -2397,18 +2227,18 @@
       <c r="O6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="42"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="54"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
@@ -2424,18 +2254,18 @@
       <c r="O7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="42"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="55"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="23"/>
       <c r="K8" s="14">
         <v>7</v>
@@ -2454,34 +2284,34 @@
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="27"/>
-      <c r="R8" s="43"/>
+      <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
+      <c r="A9" s="38">
         <v>2</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="41">
         <v>1</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J9" s="21"/>
@@ -2502,20 +2332,20 @@
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="41" t="s">
+      <c r="R9" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="56"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="50"/>
       <c r="K10" s="4">
         <v>2</v>
       </c>
@@ -2531,18 +2361,18 @@
       <c r="O10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="42"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="56"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="50"/>
       <c r="K11" s="4">
         <v>3</v>
       </c>
@@ -2558,18 +2388,18 @@
       <c r="O11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="42"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="50"/>
       <c r="K12" s="4">
         <v>4</v>
       </c>
@@ -2591,18 +2421,18 @@
       <c r="Q12" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="R12" s="42"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="50"/>
       <c r="K13" s="4">
         <v>5</v>
       </c>
@@ -2618,18 +2448,18 @@
       <c r="O13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="42"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="56"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="50"/>
       <c r="K14" s="4">
         <v>6</v>
       </c>
@@ -2645,18 +2475,18 @@
       <c r="O14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="42"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="56"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="50"/>
       <c r="K15" s="4">
         <v>7</v>
       </c>
@@ -2672,18 +2502,18 @@
       <c r="O15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="42"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="56"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="23"/>
       <c r="K16" s="4">
         <v>8</v>
@@ -2702,34 +2532,34 @@
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="43"/>
+      <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
+      <c r="A17" s="38">
         <v>3</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="41">
         <v>1</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J17" s="21"/>
@@ -2750,18 +2580,18 @@
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="28"/>
-      <c r="R17" s="41"/>
+      <c r="R17" s="35"/>
     </row>
     <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="54"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="48"/>
       <c r="K18" s="4">
         <v>2</v>
       </c>
@@ -2778,18 +2608,18 @@
         <v>46</v>
       </c>
       <c r="Q18" s="29"/>
-      <c r="R18" s="42"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="54"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="48"/>
       <c r="K19" s="4">
         <v>3</v>
       </c>
@@ -2806,18 +2636,18 @@
         <v>46</v>
       </c>
       <c r="Q19" s="29"/>
-      <c r="R19" s="42"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="54"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="48"/>
       <c r="K20" s="4">
         <v>4</v>
       </c>
@@ -2834,18 +2664,18 @@
         <v>46</v>
       </c>
       <c r="Q20" s="29"/>
-      <c r="R20" s="42"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="54"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="48"/>
       <c r="K21" s="4">
         <v>5</v>
       </c>
@@ -2862,18 +2692,18 @@
         <v>46</v>
       </c>
       <c r="Q21" s="29"/>
-      <c r="R21" s="42"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="54"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="48"/>
       <c r="K22" s="4">
         <v>6</v>
       </c>
@@ -2890,18 +2720,18 @@
         <v>46</v>
       </c>
       <c r="Q22" s="29"/>
-      <c r="R22" s="42"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="54"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="48"/>
       <c r="K23" s="4">
         <v>7</v>
       </c>
@@ -2918,18 +2748,18 @@
         <v>46</v>
       </c>
       <c r="Q23" s="29"/>
-      <c r="R23" s="42"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="54"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="48"/>
       <c r="L24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2943,18 +2773,18 @@
         <v>46</v>
       </c>
       <c r="Q24" s="29"/>
-      <c r="R24" s="42"/>
+      <c r="R24" s="36"/>
     </row>
     <row r="25" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="55"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="23"/>
       <c r="K25" s="4">
         <v>8</v>
@@ -2973,34 +2803,34 @@
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="43"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="44">
+      <c r="A26" s="38">
         <v>4</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="41">
         <v>1</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="21"/>
@@ -3025,18 +2855,18 @@
       <c r="Q26" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R26" s="41"/>
+      <c r="R26" s="35"/>
     </row>
     <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="54"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="48"/>
       <c r="K27" s="4">
         <v>2</v>
       </c>
@@ -3052,18 +2882,18 @@
       <c r="O27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="42"/>
+      <c r="R27" s="36"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="54"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="48"/>
       <c r="K28" s="4">
         <v>3</v>
       </c>
@@ -3079,18 +2909,18 @@
       <c r="O28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="42"/>
+      <c r="R28" s="36"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="54"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="48"/>
       <c r="K29" s="4">
         <v>4</v>
       </c>
@@ -3106,18 +2936,18 @@
       <c r="O29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="42"/>
+      <c r="R29" s="36"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="54"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="48"/>
       <c r="K30" s="4">
         <v>5</v>
       </c>
@@ -3133,18 +2963,18 @@
       <c r="O30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R30" s="42"/>
+      <c r="R30" s="36"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="54"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="48"/>
       <c r="K31" s="4">
         <v>6</v>
       </c>
@@ -3160,18 +2990,18 @@
       <c r="O31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="42"/>
+      <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="54"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="48"/>
       <c r="K32" s="4">
         <v>7</v>
       </c>
@@ -3187,18 +3017,18 @@
       <c r="O32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R32" s="42"/>
+      <c r="R32" s="36"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="54"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="48"/>
       <c r="K33" s="4">
         <v>8</v>
       </c>
@@ -3214,18 +3044,18 @@
       <c r="O33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="42"/>
+      <c r="R33" s="36"/>
     </row>
     <row r="34" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="54"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="48"/>
       <c r="K34" s="4">
         <v>9</v>
       </c>
@@ -3241,34 +3071,34 @@
       <c r="O34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R34" s="42"/>
+      <c r="R34" s="36"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44">
+      <c r="A35" s="38">
         <v>5</v>
       </c>
-      <c r="B35" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="47" t="s">
+      <c r="B35" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="41">
         <v>1</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J35" s="21"/>
@@ -3289,18 +3119,18 @@
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="28"/>
-      <c r="R35" s="41"/>
+      <c r="R35" s="35"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="54"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="48"/>
       <c r="K36" s="4">
         <v>2</v>
       </c>
@@ -3317,18 +3147,18 @@
         <v>46</v>
       </c>
       <c r="Q36" s="29"/>
-      <c r="R36" s="42"/>
+      <c r="R36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="54"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="48"/>
       <c r="K37" s="4">
         <v>4</v>
       </c>
@@ -3345,18 +3175,18 @@
         <v>46</v>
       </c>
       <c r="Q37" s="29"/>
-      <c r="R37" s="42"/>
+      <c r="R37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="54"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="48"/>
       <c r="K38" s="4">
         <v>5</v>
       </c>
@@ -3373,18 +3203,18 @@
         <v>46</v>
       </c>
       <c r="Q38" s="29"/>
-      <c r="R38" s="42"/>
+      <c r="R38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="54"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="48"/>
       <c r="K39" s="4">
         <v>7</v>
       </c>
@@ -3401,18 +3231,18 @@
         <v>46</v>
       </c>
       <c r="Q39" s="29"/>
-      <c r="R39" s="42"/>
+      <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="54"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="48"/>
       <c r="K40" s="4">
         <v>8</v>
       </c>
@@ -3429,34 +3259,34 @@
         <v>46</v>
       </c>
       <c r="Q40" s="29"/>
-      <c r="R40" s="42"/>
+      <c r="R40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="44">
+      <c r="A41" s="38">
         <v>6</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="41">
         <v>1</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J41" s="21"/>
@@ -3477,18 +3307,18 @@
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="28"/>
-      <c r="R41" s="41"/>
+      <c r="R41" s="35"/>
     </row>
     <row r="42" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="54"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="48"/>
       <c r="K42" s="4">
         <v>2</v>
       </c>
@@ -3505,18 +3335,18 @@
         <v>46</v>
       </c>
       <c r="Q42" s="29"/>
-      <c r="R42" s="42"/>
+      <c r="R42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="55"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="23"/>
       <c r="K43" s="14">
         <v>4</v>
@@ -3535,34 +3365,34 @@
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="30"/>
-      <c r="R43" s="43"/>
+      <c r="R43" s="37"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="44">
+      <c r="A44" s="38">
         <v>7</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="41">
         <v>2</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="G44" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="57" t="s">
+      <c r="I44" s="51" t="s">
         <v>81</v>
       </c>
       <c r="J44" s="21"/>
@@ -3583,20 +3413,20 @@
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="25"/>
-      <c r="R44" s="41" t="s">
+      <c r="R44" s="35" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="58"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="52"/>
       <c r="K45" s="4">
         <v>2</v>
       </c>
@@ -3612,18 +3442,18 @@
       <c r="O45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R45" s="42"/>
+      <c r="R45" s="36"/>
     </row>
     <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="58"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="52"/>
       <c r="K46" s="4">
         <v>3</v>
       </c>
@@ -3639,18 +3469,18 @@
       <c r="O46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="42"/>
+      <c r="R46" s="36"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="58"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="52"/>
       <c r="K47" s="4">
         <v>4</v>
       </c>
@@ -3672,18 +3502,18 @@
       <c r="Q47" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R47" s="42"/>
+      <c r="R47" s="36"/>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="58"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="52"/>
       <c r="K48" s="4">
         <v>5</v>
       </c>
@@ -3699,18 +3529,18 @@
       <c r="O48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R48" s="42"/>
+      <c r="R48" s="36"/>
     </row>
     <row r="49" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="58"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="52"/>
       <c r="K49" s="4">
         <v>6</v>
       </c>
@@ -3732,18 +3562,18 @@
       <c r="Q49" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="42"/>
+      <c r="R49" s="36"/>
     </row>
     <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="58"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="52"/>
       <c r="K50" s="4">
         <v>7</v>
       </c>
@@ -3759,18 +3589,18 @@
       <c r="O50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R50" s="42"/>
+      <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="58"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="52"/>
       <c r="K51" s="4">
         <v>8</v>
       </c>
@@ -3786,18 +3616,18 @@
       <c r="O51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R51" s="42"/>
+      <c r="R51" s="36"/>
     </row>
     <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="58"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="52"/>
       <c r="K52" s="4">
         <v>9</v>
       </c>
@@ -3813,18 +3643,18 @@
       <c r="O52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R52" s="42"/>
+      <c r="R52" s="36"/>
     </row>
     <row r="53" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="59"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="53"/>
       <c r="J53" s="23"/>
       <c r="K53" s="14">
         <v>10</v>
@@ -3847,7 +3677,7 @@
       <c r="Q53" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="R53" s="43"/>
+      <c r="R53" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="70">
@@ -3923,57 +3753,57 @@
     <mergeCell ref="I41:I43"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576 I9">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"tak"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD KRYTYCZNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD ISTOTNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ISTOTNA USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>"USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"USTERKA PODRZĘDNA"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 B2:B1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"BŁĄD KRYTYCZNY,BŁĄD ISTOTNY,BŁĄD,ISTOTNA USTERKA,USTERKA,USTERKA PODRZĘDNA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2:I8" r:id="rId1" display="Film"/>
-    <hyperlink ref="I9:I16" r:id="rId2" display="Film"/>
-    <hyperlink ref="I17:I25" r:id="rId3" display="Film"/>
-    <hyperlink ref="I41:I43" r:id="rId4" display="Film"/>
-    <hyperlink ref="I35:I40" r:id="rId5" display="Film"/>
-    <hyperlink ref="I26:I34" r:id="rId6" display="Film"/>
-    <hyperlink ref="I44:I53" r:id="rId7" display="Film"/>
+    <hyperlink ref="I2:I8" r:id="rId1" display="Film" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I9:I16" r:id="rId2" display="Film" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="I17:I25" r:id="rId3" display="Film" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="I41:I43" r:id="rId4" display="Film" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="I35:I40" r:id="rId5" display="Film" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="I26:I34" r:id="rId6" display="Film" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="I44:I53" r:id="rId7" display="Film" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -3981,12 +3811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4003,7 +3833,7 @@
     <col min="10" max="10" width="1.7109375" style="22" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="25.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="5.85546875" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="4" customWidth="1"/>
@@ -4069,31 +3899,31 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="41">
         <v>1</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="62" t="s">
+      <c r="H2" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="54" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="21"/>
@@ -4101,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>158</v>
@@ -4114,50 +3944,50 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="41"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="63"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="55"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="42"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="55"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>159</v>
@@ -4168,170 +3998,170 @@
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="42"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="63"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="55"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="42"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="55"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>160</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="R6" s="42"/>
+        <v>170</v>
+      </c>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="63"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="55"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="42"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="63"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="55"/>
       <c r="K8" s="4">
         <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="42"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="1:19" ht="132" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="63"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="55"/>
       <c r="K9" s="4">
         <v>8</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R9" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="63"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="55"/>
       <c r="K10" s="4">
         <v>9</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>161</v>
@@ -4342,56 +4172,56 @@
       <c r="O10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="42"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:19" ht="216" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="63"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="55"/>
       <c r="K11" s="4">
         <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R11" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="63"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="55"/>
       <c r="K12" s="4">
         <v>11</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>162</v>
@@ -4402,230 +4232,230 @@
       <c r="O12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="42"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="63"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="55"/>
       <c r="K13" s="4">
         <v>12</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="42"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="63"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="55"/>
       <c r="K14" s="4">
         <v>13</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="42"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="63"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="55"/>
       <c r="K15" s="4">
         <v>14</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="42"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="63"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="55"/>
       <c r="K16" s="4">
         <v>15</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="42"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="63"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="55"/>
       <c r="K17" s="4">
         <v>16</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="42"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="63"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="55"/>
       <c r="K18" s="4">
         <v>17</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="42"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="64"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="23"/>
       <c r="K19" s="14">
         <v>18</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>89</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="R19" s="43"/>
+        <v>171</v>
+      </c>
+      <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="47" t="s">
+      <c r="C20" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="41">
         <v>2</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="62" t="s">
+      <c r="H20" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="54" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="21"/>
@@ -4633,455 +4463,455 @@
         <v>1</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O20" s="13" t="s">
         <v>46</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="25"/>
-      <c r="R20" s="41"/>
+      <c r="R20" s="35"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="63"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="55"/>
       <c r="K21" s="4">
         <v>2</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R21" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="63"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="55"/>
       <c r="K22" s="4">
         <v>3</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R22" s="42"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="63"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="55"/>
       <c r="K23" s="4">
         <v>4</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="42"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="63"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="55"/>
       <c r="K24" s="4">
         <v>5</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R24" s="42"/>
+      <c r="R24" s="36"/>
     </row>
     <row r="25" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="63"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="55"/>
       <c r="K25" s="4">
         <v>6</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R25" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="R25" s="36"/>
     </row>
     <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="63"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="55"/>
       <c r="K26" s="4">
         <v>7</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R26" s="42"/>
+      <c r="R26" s="36"/>
     </row>
     <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="63"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="55"/>
       <c r="K27" s="4">
         <v>8</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R27" s="42"/>
+      <c r="R27" s="36"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="63"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="55"/>
       <c r="K28" s="4">
         <v>9</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="42"/>
+      <c r="R28" s="36"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="63"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="55"/>
       <c r="K29" s="4">
         <v>10</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R29" s="42"/>
+      <c r="R29" s="36"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="63"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="55"/>
       <c r="K30" s="4">
         <v>11</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R30" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="R30" s="36"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="63"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="55"/>
       <c r="K31" s="4">
         <v>12</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R31" s="42"/>
+      <c r="R31" s="36"/>
     </row>
     <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="63"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="55"/>
       <c r="L32" s="4" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>89</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="R32" s="42"/>
+        <v>170</v>
+      </c>
+      <c r="R32" s="36"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="64"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="23"/>
       <c r="K33" s="14">
         <v>13</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="O33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="27"/>
-      <c r="R33" s="43"/>
+      <c r="R33" s="37"/>
     </row>
     <row r="34" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="47" t="s">
+      <c r="C34" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="41">
+        <v>1</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="47">
-        <v>1</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="54" t="s">
         <v>81</v>
       </c>
       <c r="J34" s="21"/>
@@ -5089,1015 +4919,955 @@
         <v>1</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O34" s="13" t="s">
         <v>46</v>
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="25"/>
-      <c r="R34" s="41"/>
+      <c r="R34" s="35"/>
     </row>
     <row r="35" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37">
+      <c r="A35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="55"/>
+      <c r="K35" s="4">
         <v>2</v>
       </c>
-      <c r="L35" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M35" s="37" t="s">
+      <c r="L35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N35" s="37" t="s">
+      <c r="N35" s="4" t="s">
         <v>158</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R35" s="42"/>
+      <c r="R35" s="36"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37">
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="55"/>
+      <c r="K36" s="4">
         <v>3</v>
       </c>
-      <c r="L36" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="M36" s="37" t="s">
+      <c r="L36" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N36" s="37" t="s">
+      <c r="N36" s="4" t="s">
         <v>159</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R36" s="42"/>
+      <c r="R36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37">
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="55"/>
+      <c r="K37" s="4">
         <v>4</v>
       </c>
-      <c r="L37" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M37" s="37" t="s">
+      <c r="L37" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N37" s="37" t="s">
+      <c r="N37" s="4" t="s">
         <v>158</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="42"/>
+      <c r="R37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="37">
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="55"/>
+      <c r="K38" s="4">
         <v>5</v>
       </c>
-      <c r="L38" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="M38" s="37" t="s">
+      <c r="L38" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>160</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Q38" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="R38" s="42"/>
+        <v>170</v>
+      </c>
+      <c r="R38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="37">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="55"/>
+      <c r="K39" s="4">
         <v>6</v>
       </c>
-      <c r="L39" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M39" s="37" t="s">
+      <c r="L39" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N39" s="37" t="s">
+      <c r="N39" s="4" t="s">
         <v>158</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="42"/>
+      <c r="R39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="37">
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="55"/>
+      <c r="K40" s="4">
         <v>7</v>
       </c>
-      <c r="L40" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="M40" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="N40" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="O40" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="42"/>
+      <c r="L40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="132" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37">
+      <c r="A41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="55"/>
+      <c r="K41" s="4">
         <v>8</v>
       </c>
-      <c r="L41" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M41" s="37" t="s">
+      <c r="L41" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N41" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="O41" s="37" t="s">
+      <c r="N41" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R41" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="R41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="37">
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="55"/>
+      <c r="K42" s="4">
         <v>9</v>
       </c>
-      <c r="L42" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="M42" s="37" t="s">
+      <c r="L42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="N42" s="37" t="s">
+      <c r="N42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="O42" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="R42" s="42"/>
+      <c r="O42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="216" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37">
+      <c r="A43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="55"/>
+      <c r="K43" s="4">
         <v>10</v>
       </c>
-      <c r="L43" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M43" s="37" t="s">
+      <c r="L43" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N43" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="O43" s="37" t="s">
+      <c r="N43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q43" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="R43" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="R43" s="36"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="37">
+      <c r="A44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="55"/>
+      <c r="K44" s="4">
         <v>11</v>
       </c>
-      <c r="L44" s="37" t="s">
+      <c r="L44" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R44" s="36"/>
+    </row>
+    <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="55"/>
+      <c r="K45" s="4">
+        <v>12</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R45" s="36"/>
+    </row>
+    <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="55"/>
+      <c r="K46" s="4">
+        <v>13</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M44" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="N44" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="O44" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="R44" s="42"/>
-    </row>
-    <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="37">
-        <v>12</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M45" s="37" t="s">
+      <c r="N46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" s="36"/>
+    </row>
+    <row r="47" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="55"/>
+      <c r="K47" s="4">
+        <v>14</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N45" s="37" t="s">
+      <c r="N47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O45" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="42"/>
-    </row>
-    <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37">
-        <v>13</v>
-      </c>
-      <c r="L46" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="M46" s="37" t="s">
+      <c r="O47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R47" s="36"/>
+    </row>
+    <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="55"/>
+      <c r="K48" s="4">
+        <v>15</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N46" s="37" t="s">
+      <c r="N48" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O46" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="42"/>
-    </row>
-    <row r="47" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="37">
-        <v>14</v>
-      </c>
-      <c r="L47" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M47" s="37" t="s">
+      <c r="O48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R48" s="36"/>
+    </row>
+    <row r="49" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="55"/>
+      <c r="K49" s="4">
+        <v>16</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N47" s="37" t="s">
+      <c r="N49" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O47" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="42"/>
-    </row>
-    <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="37">
-        <v>15</v>
-      </c>
-      <c r="L48" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="M48" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="N48" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="O48" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="42"/>
-    </row>
-    <row r="49" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="37">
-        <v>16</v>
-      </c>
-      <c r="L49" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M49" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="N49" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="O49" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="42"/>
+      <c r="O49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R49" s="36"/>
     </row>
     <row r="50" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="37">
+      <c r="A50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="55"/>
+      <c r="K50" s="4">
         <v>17</v>
       </c>
-      <c r="L50" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="M50" s="37" t="s">
-        <v>167</v>
+      <c r="L50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R50" s="42"/>
+      <c r="R50" s="36"/>
     </row>
     <row r="51" spans="1:18" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="64"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="23"/>
       <c r="K51" s="14">
         <v>18</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M51" s="14" t="s">
         <v>158</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O51" s="14" t="s">
         <v>89</v>
       </c>
       <c r="P51" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="R51" s="37"/>
+    </row>
+    <row r="52" spans="1:18" ht="60" x14ac:dyDescent="0.2">
+      <c r="A52" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="41">
+        <v>1</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="Q51" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="R51" s="43"/>
-    </row>
-    <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47" t="s">
+      <c r="I52" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" s="13">
+        <v>1</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="47">
-        <v>1</v>
-      </c>
-      <c r="G52" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="33">
-        <v>1</v>
-      </c>
-      <c r="L52" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="M52" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="41"/>
+      <c r="N52" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="R52" s="35"/>
     </row>
     <row r="53" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="37">
+      <c r="A53" s="39"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="61">
         <v>2</v>
       </c>
-      <c r="L53" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M53" s="37" t="s">
+      <c r="L53" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="M53" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="N53" s="37"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="R53" s="42"/>
+      <c r="N53" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O53" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="36"/>
     </row>
     <row r="54" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="37">
+      <c r="A54" s="39"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="61">
         <v>3</v>
       </c>
-      <c r="L54" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="M54" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="N54" s="37"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="R54" s="42"/>
+      <c r="L54" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="M54" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O54" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="36"/>
     </row>
     <row r="55" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="37">
+      <c r="A55" s="39"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="61">
         <v>4</v>
       </c>
-      <c r="L55" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M55" s="37" t="s">
+      <c r="L55" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="M55" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="N55" s="37"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="R55" s="42"/>
-    </row>
-    <row r="56" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="37">
+      <c r="N55" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O55" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="36"/>
+    </row>
+    <row r="56" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="61">
         <v>5</v>
       </c>
-      <c r="L56" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="M56" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="R56" s="42"/>
+      <c r="L56" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="M56" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="N56" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="O56" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="36"/>
     </row>
     <row r="57" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="37">
+      <c r="A57" s="39"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="61">
         <v>6</v>
       </c>
-      <c r="L57" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M57" s="37" t="s">
+      <c r="L57" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="M57" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="N57" s="37"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="R57" s="42"/>
-    </row>
-    <row r="58" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="37">
+      <c r="N57" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O57" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="36"/>
+    </row>
+    <row r="58" spans="1:18" ht="36" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="61">
         <v>7</v>
       </c>
-      <c r="L58" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="M58" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="42"/>
-    </row>
-    <row r="59" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="37">
+      <c r="L58" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="M58" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="N58" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="O58" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="36"/>
+    </row>
+    <row r="59" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="14">
         <v>8</v>
       </c>
-      <c r="L59" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M59" s="37" t="s">
+      <c r="L59" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="M59" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="34"/>
-      <c r="R59" s="42"/>
-    </row>
-    <row r="60" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="37">
-        <v>9</v>
-      </c>
-      <c r="L60" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="M60" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="34"/>
-      <c r="R60" s="42"/>
-    </row>
-    <row r="61" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="37">
-        <v>10</v>
-      </c>
-      <c r="L61" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M61" s="37" t="s">
+      <c r="N59" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="34"/>
-      <c r="R61" s="42"/>
-    </row>
-    <row r="62" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="37">
-        <v>11</v>
-      </c>
-      <c r="L62" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="M62" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="34"/>
-      <c r="R62" s="42"/>
-    </row>
-    <row r="63" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A63" s="45"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="37">
-        <v>12</v>
-      </c>
-      <c r="L63" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M63" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="42"/>
-    </row>
-    <row r="64" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="37">
-        <v>13</v>
-      </c>
-      <c r="L64" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="M64" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="42"/>
-    </row>
-    <row r="65" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="37">
-        <v>14</v>
-      </c>
-      <c r="L65" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M65" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="42"/>
-    </row>
-    <row r="66" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="37">
-        <v>15</v>
-      </c>
-      <c r="L66" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="M66" s="37" t="s">
+      <c r="O59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="37"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="42"/>
-    </row>
-    <row r="67" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A67" s="45"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="37">
-        <v>16</v>
-      </c>
-      <c r="L67" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="M67" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="42"/>
-    </row>
-    <row r="68" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="37">
-        <v>17</v>
-      </c>
-      <c r="L68" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="M68" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="R68" s="42"/>
-    </row>
-    <row r="69" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="35">
-        <v>18</v>
-      </c>
-      <c r="L69" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="M69" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="43"/>
+      <c r="D60" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="36"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="36"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="36"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="36"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="39"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="36"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="36"/>
+    </row>
+    <row r="67" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="56"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="F52:F69"/>
-    <mergeCell ref="G52:G69"/>
-    <mergeCell ref="H52:H69"/>
-    <mergeCell ref="I52:I69"/>
-    <mergeCell ref="R52:R69"/>
-    <mergeCell ref="A52:A69"/>
-    <mergeCell ref="B52:B69"/>
-    <mergeCell ref="C52:C69"/>
-    <mergeCell ref="D52:D69"/>
-    <mergeCell ref="E52:E69"/>
+  <mergeCells count="50">
+    <mergeCell ref="F60:F67"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="I60:I67"/>
+    <mergeCell ref="R60:R67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="E60:E67"/>
+    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="I52:I59"/>
+    <mergeCell ref="R52:R59"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="E52:E59"/>
     <mergeCell ref="F20:F33"/>
     <mergeCell ref="G20:G33"/>
     <mergeCell ref="H20:H33"/>
@@ -6129,92 +5899,57 @@
     <mergeCell ref="I34:I51"/>
     <mergeCell ref="R34:R51"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B51 B70:B1048576">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"tak"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O51 O70:O1048576">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"TAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"NIE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q51 Q70:Q1048576">
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD KRYTYCZNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD ISTOTNY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"BŁĄD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ISTOTNA USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
       <formula>"USTERKA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"USTERKA PODRZĘDNA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B69">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
-      <formula>"NIE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
-      <formula>"tak"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O52:O69">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"TAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"NIE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q52:Q69">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"BŁĄD KRYTYCZNY"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"BŁĄD ISTOTNY"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"BŁĄD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"ISTOTNA USTERKA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"USTERKA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>"USTERKA PODRZĘDNA"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"BŁĄD KRYTYCZNY,BŁĄD ISTOTNY,BŁĄD,ISTOTNA USTERKA,USTERKA,USTERKA PODRZĘDNA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 B2:B1048576" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"TAK,NIE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2:I19" r:id="rId1" display="Film"/>
-    <hyperlink ref="I20:I33" r:id="rId2" display="Film"/>
-    <hyperlink ref="I34:I51" r:id="rId3" display="Film"/>
+    <hyperlink ref="I2:I19" r:id="rId1" display="Film" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I20:I33" r:id="rId2" display="Film" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="I34:I51" r:id="rId3" display="Film" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="I52:I59" r:id="rId4" display="Film" xr:uid="{392A2E82-82EC-40D6-A8AB-6C8EAFB6EB2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\Documents\GitHub\Testy [Dołącz-Mises]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5692BCC3-0307-4147-BCF1-9C02D02E1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5AE80-8BEA-496E-B690-B879E19CA457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1075,15 +1075,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,6 +1093,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1110,15 @@
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,15 +1132,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,19 +1142,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1986,10 +1973,10 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44:D53"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2072,31 +2059,31 @@
       <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="38">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="38">
         <v>1</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="21"/>
@@ -2117,20 +2104,20 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="45"/>
-      <c r="I3" s="48"/>
+      <c r="I3" s="51"/>
       <c r="K3" s="4">
         <v>2</v>
       </c>
@@ -2146,18 +2133,18 @@
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="36"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="45"/>
-      <c r="I4" s="48"/>
+      <c r="I4" s="51"/>
       <c r="K4" s="4">
         <v>3</v>
       </c>
@@ -2173,18 +2160,18 @@
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="36"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="45"/>
-      <c r="I5" s="48"/>
+      <c r="I5" s="51"/>
       <c r="K5" s="4">
         <v>4</v>
       </c>
@@ -2200,18 +2187,18 @@
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="36"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="48"/>
+      <c r="I6" s="51"/>
       <c r="K6" s="4">
         <v>5</v>
       </c>
@@ -2227,18 +2214,18 @@
       <c r="O6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="36"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="48"/>
+      <c r="I7" s="51"/>
       <c r="K7" s="4">
         <v>6</v>
       </c>
@@ -2254,18 +2241,18 @@
       <c r="O7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="36"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="49"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="23"/>
       <c r="K8" s="14">
         <v>7</v>
@@ -2284,34 +2271,34 @@
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="27"/>
-      <c r="R8" s="37"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="35">
         <v>2</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="38">
         <v>1</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="53" t="s">
         <v>81</v>
       </c>
       <c r="J9" s="21"/>
@@ -2332,20 +2319,20 @@
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="53"/>
       <c r="K10" s="4">
         <v>2</v>
       </c>
@@ -2361,18 +2348,18 @@
       <c r="O10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="36"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="53"/>
       <c r="K11" s="4">
         <v>3</v>
       </c>
@@ -2388,18 +2375,18 @@
       <c r="O11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="36"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="53"/>
       <c r="K12" s="4">
         <v>4</v>
       </c>
@@ -2421,18 +2408,18 @@
       <c r="Q12" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="R12" s="36"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="53"/>
       <c r="K13" s="4">
         <v>5</v>
       </c>
@@ -2448,18 +2435,18 @@
       <c r="O13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="36"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:19" ht="36" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="53"/>
       <c r="K14" s="4">
         <v>6</v>
       </c>
@@ -2475,18 +2462,18 @@
       <c r="O14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="53"/>
       <c r="K15" s="4">
         <v>7</v>
       </c>
@@ -2502,18 +2489,18 @@
       <c r="O15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="46"/>
-      <c r="I16" s="50"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="23"/>
       <c r="K16" s="4">
         <v>8</v>
@@ -2532,34 +2519,34 @@
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="37"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="35">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="38">
         <v>1</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J17" s="21"/>
@@ -2580,18 +2567,18 @@
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="28"/>
-      <c r="R17" s="35"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="48"/>
+      <c r="I18" s="51"/>
       <c r="K18" s="4">
         <v>2</v>
       </c>
@@ -2608,18 +2595,18 @@
         <v>46</v>
       </c>
       <c r="Q18" s="29"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="48"/>
+      <c r="I19" s="51"/>
       <c r="K19" s="4">
         <v>3</v>
       </c>
@@ -2636,18 +2623,18 @@
         <v>46</v>
       </c>
       <c r="Q19" s="29"/>
-      <c r="R19" s="36"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="51"/>
       <c r="K20" s="4">
         <v>4</v>
       </c>
@@ -2664,18 +2651,18 @@
         <v>46</v>
       </c>
       <c r="Q20" s="29"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="48"/>
+      <c r="I21" s="51"/>
       <c r="K21" s="4">
         <v>5</v>
       </c>
@@ -2692,18 +2679,18 @@
         <v>46</v>
       </c>
       <c r="Q21" s="29"/>
-      <c r="R21" s="36"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="51"/>
       <c r="K22" s="4">
         <v>6</v>
       </c>
@@ -2720,18 +2707,18 @@
         <v>46</v>
       </c>
       <c r="Q22" s="29"/>
-      <c r="R22" s="36"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="51"/>
       <c r="K23" s="4">
         <v>7</v>
       </c>
@@ -2748,18 +2735,18 @@
         <v>46</v>
       </c>
       <c r="Q23" s="29"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="51"/>
       <c r="L24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2773,18 +2760,18 @@
         <v>46</v>
       </c>
       <c r="Q24" s="29"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="46"/>
-      <c r="I25" s="49"/>
+      <c r="I25" s="52"/>
       <c r="J25" s="23"/>
       <c r="K25" s="4">
         <v>8</v>
@@ -2803,34 +2790,34 @@
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="37"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="35">
         <v>4</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="38">
         <v>1</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="21"/>
@@ -2855,18 +2842,18 @@
       <c r="Q26" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R26" s="35"/>
+      <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="48"/>
+      <c r="I27" s="51"/>
       <c r="K27" s="4">
         <v>2</v>
       </c>
@@ -2882,18 +2869,18 @@
       <c r="O27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="36"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="48"/>
+      <c r="I28" s="51"/>
       <c r="K28" s="4">
         <v>3</v>
       </c>
@@ -2909,18 +2896,18 @@
       <c r="O28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="36"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="48"/>
+      <c r="I29" s="51"/>
       <c r="K29" s="4">
         <v>4</v>
       </c>
@@ -2936,18 +2923,18 @@
       <c r="O29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="36"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="48"/>
+      <c r="I30" s="51"/>
       <c r="K30" s="4">
         <v>5</v>
       </c>
@@ -2963,18 +2950,18 @@
       <c r="O30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R30" s="36"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="48"/>
+      <c r="I31" s="51"/>
       <c r="K31" s="4">
         <v>6</v>
       </c>
@@ -2990,18 +2977,18 @@
       <c r="O31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="36"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="48"/>
+      <c r="I32" s="51"/>
       <c r="K32" s="4">
         <v>7</v>
       </c>
@@ -3017,18 +3004,18 @@
       <c r="O32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R32" s="36"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="48"/>
+      <c r="I33" s="51"/>
       <c r="K33" s="4">
         <v>8</v>
       </c>
@@ -3044,18 +3031,18 @@
       <c r="O33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R33" s="36"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="48"/>
+      <c r="I34" s="51"/>
       <c r="K34" s="4">
         <v>9</v>
       </c>
@@ -3071,34 +3058,34 @@
       <c r="O34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R34" s="36"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="35">
         <v>5</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="41" t="s">
+      <c r="B35" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="38">
         <v>1</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J35" s="21"/>
@@ -3119,18 +3106,18 @@
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="28"/>
-      <c r="R35" s="35"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="48"/>
+      <c r="I36" s="51"/>
       <c r="K36" s="4">
         <v>2</v>
       </c>
@@ -3147,18 +3134,18 @@
         <v>46</v>
       </c>
       <c r="Q36" s="29"/>
-      <c r="R36" s="36"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="48"/>
+      <c r="I37" s="51"/>
       <c r="K37" s="4">
         <v>4</v>
       </c>
@@ -3175,18 +3162,18 @@
         <v>46</v>
       </c>
       <c r="Q37" s="29"/>
-      <c r="R37" s="36"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="48"/>
+      <c r="I38" s="51"/>
       <c r="K38" s="4">
         <v>5</v>
       </c>
@@ -3203,18 +3190,18 @@
         <v>46</v>
       </c>
       <c r="Q38" s="29"/>
-      <c r="R38" s="36"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="48"/>
+      <c r="I39" s="51"/>
       <c r="K39" s="4">
         <v>7</v>
       </c>
@@ -3231,18 +3218,18 @@
         <v>46</v>
       </c>
       <c r="Q39" s="29"/>
-      <c r="R39" s="36"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="48"/>
+      <c r="I40" s="51"/>
       <c r="K40" s="4">
         <v>8</v>
       </c>
@@ -3259,34 +3246,34 @@
         <v>46</v>
       </c>
       <c r="Q40" s="29"/>
-      <c r="R40" s="36"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
+      <c r="A41" s="35">
         <v>6</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="41" t="s">
+      <c r="B41" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="38">
         <v>1</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="50" t="s">
         <v>81</v>
       </c>
       <c r="J41" s="21"/>
@@ -3307,18 +3294,18 @@
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="28"/>
-      <c r="R41" s="35"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="48"/>
+      <c r="I42" s="51"/>
       <c r="K42" s="4">
         <v>2</v>
       </c>
@@ -3335,18 +3322,18 @@
         <v>46</v>
       </c>
       <c r="Q42" s="29"/>
-      <c r="R42" s="36"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="46"/>
-      <c r="I43" s="49"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="23"/>
       <c r="K43" s="14">
         <v>4</v>
@@ -3365,34 +3352,34 @@
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="30"/>
-      <c r="R43" s="37"/>
+      <c r="R43" s="43"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
+      <c r="A44" s="35">
         <v>7</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="38">
         <v>2</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="I44" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J44" s="21"/>
@@ -3413,20 +3400,20 @@
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="25"/>
-      <c r="R44" s="35" t="s">
+      <c r="R44" s="41" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="45"/>
-      <c r="I45" s="52"/>
+      <c r="I45" s="48"/>
       <c r="K45" s="4">
         <v>2</v>
       </c>
@@ -3442,18 +3429,18 @@
       <c r="O45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R45" s="36"/>
+      <c r="R45" s="42"/>
     </row>
     <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="45"/>
-      <c r="I46" s="52"/>
+      <c r="I46" s="48"/>
       <c r="K46" s="4">
         <v>3</v>
       </c>
@@ -3469,18 +3456,18 @@
       <c r="O46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="36"/>
+      <c r="R46" s="42"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="45"/>
-      <c r="I47" s="52"/>
+      <c r="I47" s="48"/>
       <c r="K47" s="4">
         <v>4</v>
       </c>
@@ -3502,18 +3489,18 @@
       <c r="Q47" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R47" s="36"/>
+      <c r="R47" s="42"/>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="45"/>
-      <c r="I48" s="52"/>
+      <c r="I48" s="48"/>
       <c r="K48" s="4">
         <v>5</v>
       </c>
@@ -3529,18 +3516,18 @@
       <c r="O48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R48" s="36"/>
+      <c r="R48" s="42"/>
     </row>
     <row r="49" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="45"/>
-      <c r="I49" s="52"/>
+      <c r="I49" s="48"/>
       <c r="K49" s="4">
         <v>6</v>
       </c>
@@ -3562,18 +3549,18 @@
       <c r="Q49" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="36"/>
+      <c r="R49" s="42"/>
     </row>
     <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="45"/>
-      <c r="I50" s="52"/>
+      <c r="I50" s="48"/>
       <c r="K50" s="4">
         <v>7</v>
       </c>
@@ -3589,18 +3576,18 @@
       <c r="O50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R50" s="36"/>
+      <c r="R50" s="42"/>
     </row>
     <row r="51" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="45"/>
-      <c r="I51" s="52"/>
+      <c r="I51" s="48"/>
       <c r="K51" s="4">
         <v>8</v>
       </c>
@@ -3616,18 +3603,18 @@
       <c r="O51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R51" s="36"/>
+      <c r="R51" s="42"/>
     </row>
     <row r="52" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
       <c r="H52" s="45"/>
-      <c r="I52" s="52"/>
+      <c r="I52" s="48"/>
       <c r="K52" s="4">
         <v>9</v>
       </c>
@@ -3643,18 +3630,18 @@
       <c r="O52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R52" s="36"/>
+      <c r="R52" s="42"/>
     </row>
     <row r="53" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="46"/>
-      <c r="I53" s="53"/>
+      <c r="I53" s="49"/>
       <c r="J53" s="23"/>
       <c r="K53" s="14">
         <v>10</v>
@@ -3677,38 +3664,36 @@
       <c r="Q53" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="R53" s="37"/>
+      <c r="R53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="R44:R53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="G44:G53"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="H44:H53"/>
-    <mergeCell ref="I44:I53"/>
-    <mergeCell ref="R2:R8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="R26:R34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="F35:F40"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="R35:R40"/>
+    <mergeCell ref="F26:F34"/>
+    <mergeCell ref="G26:G34"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="H26:H34"/>
+    <mergeCell ref="I26:I34"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="C26:C34"/>
     <mergeCell ref="D26:D34"/>
@@ -3725,32 +3710,34 @@
     <mergeCell ref="I17:I25"/>
     <mergeCell ref="R17:R25"/>
     <mergeCell ref="F9:F16"/>
-    <mergeCell ref="R26:R34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="R35:R40"/>
-    <mergeCell ref="F26:F34"/>
-    <mergeCell ref="G26:G34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="H26:H34"/>
-    <mergeCell ref="I26:I34"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="R2:R8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="R44:R53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="G44:G53"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="H44:H53"/>
+    <mergeCell ref="I44:I53"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576 I9">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
@@ -3814,9 +3801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3902,22 +3889,22 @@
       <c r="A2" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="38">
         <v>1</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="44" t="s">
@@ -3944,16 +3931,16 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="35"/>
+      <c r="R2" s="41"/>
     </row>
     <row r="3" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="45"/>
       <c r="I3" s="55"/>
       <c r="K3" s="4">
@@ -3971,16 +3958,16 @@
       <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="36"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="45"/>
       <c r="I4" s="55"/>
       <c r="K4" s="4">
@@ -3998,16 +3985,16 @@
       <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="36"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="45"/>
       <c r="I5" s="55"/>
       <c r="K5" s="4">
@@ -4025,16 +4012,16 @@
       <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="36"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:19" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="45"/>
       <c r="I6" s="55"/>
       <c r="K6" s="4">
@@ -4058,16 +4045,16 @@
       <c r="Q6" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="36"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="45"/>
       <c r="I7" s="55"/>
       <c r="K7" s="4">
@@ -4085,16 +4072,16 @@
       <c r="O7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="36"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="45"/>
       <c r="I8" s="55"/>
       <c r="K8" s="4">
@@ -4112,16 +4099,16 @@
       <c r="O8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="36"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:19" ht="132" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="45"/>
       <c r="I9" s="55"/>
       <c r="K9" s="4">
@@ -4145,16 +4132,16 @@
       <c r="Q9" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="R9" s="36"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="45"/>
       <c r="I10" s="55"/>
       <c r="K10" s="4">
@@ -4172,16 +4159,16 @@
       <c r="O10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="36"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:19" ht="216" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="45"/>
       <c r="I11" s="55"/>
       <c r="K11" s="4">
@@ -4205,16 +4192,16 @@
       <c r="Q11" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="R11" s="36"/>
+      <c r="R11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="45"/>
       <c r="I12" s="55"/>
       <c r="K12" s="4">
@@ -4232,16 +4219,16 @@
       <c r="O12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="36"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="45"/>
       <c r="I13" s="55"/>
       <c r="K13" s="4">
@@ -4259,16 +4246,16 @@
       <c r="O13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="36"/>
+      <c r="R13" s="42"/>
     </row>
     <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="45"/>
       <c r="I14" s="55"/>
       <c r="K14" s="4">
@@ -4286,16 +4273,16 @@
       <c r="O14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="45"/>
       <c r="I15" s="55"/>
       <c r="K15" s="4">
@@ -4313,16 +4300,16 @@
       <c r="O15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="42"/>
     </row>
     <row r="16" spans="1:19" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="45"/>
       <c r="I16" s="55"/>
       <c r="K16" s="4">
@@ -4340,16 +4327,16 @@
       <c r="O16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="36"/>
+      <c r="R16" s="42"/>
     </row>
     <row r="17" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="45"/>
       <c r="I17" s="55"/>
       <c r="K17" s="4">
@@ -4367,16 +4354,16 @@
       <c r="O17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="36"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="45"/>
       <c r="I18" s="55"/>
       <c r="K18" s="4">
@@ -4394,16 +4381,16 @@
       <c r="O18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="36"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="1:18" ht="108.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="46"/>
       <c r="I19" s="56"/>
       <c r="J19" s="23"/>
@@ -4428,28 +4415,28 @@
       <c r="Q19" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="R19" s="37"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="38">
         <v>2</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H20" s="44" t="s">
@@ -4476,16 +4463,16 @@
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="25"/>
-      <c r="R20" s="35"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="45"/>
       <c r="I21" s="55"/>
       <c r="K21" s="4">
@@ -4509,16 +4496,16 @@
       <c r="Q21" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="R21" s="36"/>
+      <c r="R21" s="42"/>
     </row>
     <row r="22" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="45"/>
       <c r="I22" s="55"/>
       <c r="K22" s="4">
@@ -4542,16 +4529,16 @@
       <c r="Q22" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R22" s="36"/>
-    </row>
-    <row r="23" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="45"/>
       <c r="I23" s="55"/>
       <c r="K23" s="4">
@@ -4569,16 +4556,16 @@
       <c r="O23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="36"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="45"/>
       <c r="I24" s="55"/>
       <c r="K24" s="4">
@@ -4602,16 +4589,16 @@
       <c r="Q24" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R24" s="36"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="45"/>
       <c r="I25" s="55"/>
       <c r="K25" s="4">
@@ -4635,16 +4622,16 @@
       <c r="Q25" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="R25" s="36"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="45"/>
       <c r="I26" s="55"/>
       <c r="K26" s="4">
@@ -4668,16 +4655,16 @@
       <c r="Q26" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R26" s="36"/>
-    </row>
-    <row r="27" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" ht="24" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="45"/>
       <c r="I27" s="55"/>
       <c r="K27" s="4">
@@ -4701,16 +4688,16 @@
       <c r="Q27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R27" s="36"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="45"/>
       <c r="I28" s="55"/>
       <c r="K28" s="4">
@@ -4728,16 +4715,16 @@
       <c r="O28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="36"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="45"/>
       <c r="I29" s="55"/>
       <c r="K29" s="4">
@@ -4761,16 +4748,16 @@
       <c r="Q29" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R29" s="36"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="45"/>
       <c r="I30" s="55"/>
       <c r="K30" s="4">
@@ -4794,16 +4781,16 @@
       <c r="Q30" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="R30" s="36"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="45"/>
       <c r="I31" s="55"/>
       <c r="K31" s="4">
@@ -4827,16 +4814,16 @@
       <c r="Q31" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R31" s="36"/>
-    </row>
-    <row r="32" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="R31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="45"/>
       <c r="I32" s="55"/>
       <c r="L32" s="4" t="s">
@@ -4854,16 +4841,16 @@
       <c r="Q32" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="R32" s="36"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="46"/>
       <c r="I33" s="56"/>
       <c r="J33" s="23"/>
@@ -4884,28 +4871,28 @@
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="27"/>
-      <c r="R33" s="37"/>
+      <c r="R33" s="43"/>
     </row>
     <row r="34" spans="1:18" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="38">
         <v>1</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H34" s="44" t="s">
@@ -4932,16 +4919,16 @@
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="25"/>
-      <c r="R34" s="35"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="45"/>
       <c r="I35" s="55"/>
       <c r="K35" s="4">
@@ -4959,16 +4946,16 @@
       <c r="O35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R35" s="36"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="45"/>
       <c r="I36" s="55"/>
       <c r="K36" s="4">
@@ -4986,16 +4973,16 @@
       <c r="O36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R36" s="36"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="45"/>
       <c r="I37" s="55"/>
       <c r="K37" s="4">
@@ -5013,16 +5000,16 @@
       <c r="O37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="36"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="45"/>
       <c r="I38" s="55"/>
       <c r="K38" s="4">
@@ -5046,16 +5033,16 @@
       <c r="Q38" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="R38" s="36"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="45"/>
       <c r="I39" s="55"/>
       <c r="K39" s="4">
@@ -5073,16 +5060,16 @@
       <c r="O39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="36"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="45"/>
       <c r="I40" s="55"/>
       <c r="K40" s="4">
@@ -5100,16 +5087,16 @@
       <c r="O40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="36"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="1:18" ht="132" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="45"/>
       <c r="I41" s="55"/>
       <c r="K41" s="4">
@@ -5133,16 +5120,16 @@
       <c r="Q41" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="R41" s="36"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="45"/>
       <c r="I42" s="55"/>
       <c r="K42" s="4">
@@ -5160,16 +5147,16 @@
       <c r="O42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R42" s="36"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="1:18" ht="216" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="45"/>
       <c r="I43" s="55"/>
       <c r="K43" s="4">
@@ -5193,16 +5180,16 @@
       <c r="Q43" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="R43" s="36"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
       <c r="H44" s="45"/>
       <c r="I44" s="55"/>
       <c r="K44" s="4">
@@ -5220,16 +5207,16 @@
       <c r="O44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R44" s="36"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="45"/>
       <c r="I45" s="55"/>
       <c r="K45" s="4">
@@ -5247,16 +5234,16 @@
       <c r="O45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R45" s="36"/>
+      <c r="R45" s="42"/>
     </row>
     <row r="46" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="45"/>
       <c r="I46" s="55"/>
       <c r="K46" s="4">
@@ -5274,16 +5261,16 @@
       <c r="O46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="36"/>
+      <c r="R46" s="42"/>
     </row>
     <row r="47" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="45"/>
       <c r="I47" s="55"/>
       <c r="K47" s="4">
@@ -5301,16 +5288,16 @@
       <c r="O47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R47" s="36"/>
+      <c r="R47" s="42"/>
     </row>
     <row r="48" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="45"/>
       <c r="I48" s="55"/>
       <c r="K48" s="4">
@@ -5328,16 +5315,16 @@
       <c r="O48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R48" s="36"/>
+      <c r="R48" s="42"/>
     </row>
     <row r="49" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="45"/>
       <c r="I49" s="55"/>
       <c r="K49" s="4">
@@ -5355,16 +5342,16 @@
       <c r="O49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R49" s="36"/>
+      <c r="R49" s="42"/>
     </row>
     <row r="50" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="45"/>
       <c r="I50" s="55"/>
       <c r="K50" s="4">
@@ -5382,16 +5369,16 @@
       <c r="O50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R50" s="36"/>
+      <c r="R50" s="42"/>
     </row>
     <row r="51" spans="1:18" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="46"/>
       <c r="I51" s="56"/>
       <c r="J51" s="23"/>
@@ -5416,28 +5403,28 @@
       <c r="Q51" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="R51" s="37"/>
+      <c r="R51" s="43"/>
     </row>
     <row r="52" spans="1:18" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="38">
         <v>1</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="38" t="s">
         <v>45</v>
       </c>
       <c r="H52" s="44" t="s">
@@ -5468,196 +5455,178 @@
       <c r="Q52" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="R52" s="35"/>
+      <c r="R52" s="41"/>
     </row>
     <row r="53" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="45"/>
       <c r="I53" s="55"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="61">
+      <c r="K53" s="4">
         <v>2</v>
       </c>
-      <c r="L53" s="61" t="s">
+      <c r="L53" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="M53" s="61" t="s">
+      <c r="M53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N53" s="61" t="s">
+      <c r="N53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O53" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="36"/>
+      <c r="O53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R53" s="42"/>
     </row>
     <row r="54" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="59"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="45"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="61">
+      <c r="K54" s="4">
         <v>3</v>
       </c>
-      <c r="L54" s="61" t="s">
+      <c r="L54" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="M54" s="61" t="s">
+      <c r="M54" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N54" s="61" t="s">
+      <c r="N54" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="O54" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="36"/>
+      <c r="O54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R54" s="42"/>
     </row>
     <row r="55" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="59"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="45"/>
       <c r="I55" s="55"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="61">
+      <c r="K55" s="4">
         <v>4</v>
       </c>
-      <c r="L55" s="61" t="s">
+      <c r="L55" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="61" t="s">
+      <c r="M55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N55" s="61" t="s">
+      <c r="N55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O55" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="36"/>
+      <c r="O55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R55" s="42"/>
     </row>
     <row r="56" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="59"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="45"/>
       <c r="I56" s="55"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="61">
+      <c r="K56" s="4">
         <v>5</v>
       </c>
-      <c r="L56" s="61" t="s">
+      <c r="L56" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="M56" s="61" t="s">
+      <c r="M56" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="N56" s="61" t="s">
+      <c r="N56" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="O56" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="36"/>
+      <c r="O56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R56" s="42"/>
     </row>
     <row r="57" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="45"/>
       <c r="I57" s="55"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="61">
+      <c r="K57" s="4">
         <v>6</v>
       </c>
-      <c r="L57" s="61" t="s">
+      <c r="L57" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="M57" s="61" t="s">
+      <c r="M57" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N57" s="61" t="s">
+      <c r="N57" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O57" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="36"/>
+      <c r="O57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R57" s="42"/>
     </row>
     <row r="58" spans="1:18" ht="36" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="45"/>
       <c r="I58" s="55"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="61">
+      <c r="K58" s="4">
         <v>7</v>
       </c>
-      <c r="L58" s="61" t="s">
+      <c r="L58" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M58" s="61" t="s">
+      <c r="M58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N58" s="61" t="s">
+      <c r="N58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="O58" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="36"/>
+      <c r="O58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R58" s="42"/>
     </row>
     <row r="59" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="46"/>
       <c r="I59" s="56"/>
       <c r="J59" s="23"/>
@@ -5678,22 +5647,22 @@
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="27"/>
-      <c r="R59" s="37"/>
+      <c r="R59" s="43"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41" t="s">
+      <c r="B60" s="38"/>
+      <c r="C60" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
       <c r="H60" s="44"/>
       <c r="I60" s="54"/>
       <c r="J60" s="21"/>
@@ -5704,136 +5673,88 @@
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="25"/>
-      <c r="R60" s="35"/>
+      <c r="R60" s="41"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="59"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="45"/>
       <c r="I61" s="55"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="36"/>
+      <c r="R61" s="42"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="59"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="45"/>
       <c r="I62" s="55"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="36"/>
+      <c r="R62" s="42"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="59"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="45"/>
       <c r="I63" s="55"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="36"/>
+      <c r="R63" s="42"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="59"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="45"/>
       <c r="I64" s="55"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="36"/>
+      <c r="R64" s="42"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="59"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="45"/>
       <c r="I65" s="55"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="36"/>
+      <c r="R65" s="42"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="59"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="45"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="36"/>
+      <c r="R66" s="42"/>
     </row>
     <row r="67" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
       <c r="H67" s="46"/>
       <c r="I67" s="56"/>
       <c r="J67" s="23"/>
@@ -5844,40 +5765,20 @@
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
       <c r="Q67" s="27"/>
-      <c r="R67" s="37"/>
+      <c r="R67" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F60:F67"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="I60:I67"/>
-    <mergeCell ref="R60:R67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="E60:E67"/>
-    <mergeCell ref="F52:F59"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="H52:H59"/>
-    <mergeCell ref="I52:I59"/>
-    <mergeCell ref="R52:R59"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="E52:E59"/>
-    <mergeCell ref="F20:F33"/>
-    <mergeCell ref="G20:G33"/>
-    <mergeCell ref="H20:H33"/>
-    <mergeCell ref="I20:I33"/>
-    <mergeCell ref="R20:R33"/>
-    <mergeCell ref="A20:A33"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="C20:C33"/>
-    <mergeCell ref="D20:D33"/>
-    <mergeCell ref="E20:E33"/>
+    <mergeCell ref="F34:F51"/>
+    <mergeCell ref="G34:G51"/>
+    <mergeCell ref="H34:H51"/>
+    <mergeCell ref="I34:I51"/>
+    <mergeCell ref="R34:R51"/>
+    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="B34:B51"/>
+    <mergeCell ref="C34:C51"/>
+    <mergeCell ref="D34:D51"/>
+    <mergeCell ref="E34:E51"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="H2:H19"/>
     <mergeCell ref="I2:I19"/>
@@ -5888,16 +5789,36 @@
     <mergeCell ref="D2:D19"/>
     <mergeCell ref="E2:E19"/>
     <mergeCell ref="F2:F19"/>
-    <mergeCell ref="A34:A51"/>
-    <mergeCell ref="B34:B51"/>
-    <mergeCell ref="C34:C51"/>
-    <mergeCell ref="D34:D51"/>
-    <mergeCell ref="E34:E51"/>
-    <mergeCell ref="F34:F51"/>
-    <mergeCell ref="G34:G51"/>
-    <mergeCell ref="H34:H51"/>
-    <mergeCell ref="I34:I51"/>
-    <mergeCell ref="R34:R51"/>
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="C20:C33"/>
+    <mergeCell ref="D20:D33"/>
+    <mergeCell ref="E20:E33"/>
+    <mergeCell ref="F20:F33"/>
+    <mergeCell ref="G20:G33"/>
+    <mergeCell ref="H20:H33"/>
+    <mergeCell ref="I20:I33"/>
+    <mergeCell ref="R20:R33"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="E52:E59"/>
+    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="I52:I59"/>
+    <mergeCell ref="R52:R59"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="E60:E67"/>
+    <mergeCell ref="F60:F67"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="I60:I67"/>
+    <mergeCell ref="R60:R67"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
